--- a/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B5D66CA-0957-8F4B-9655-33018C9BDB41}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282F89F2-47A0-4A17-AE14-F93388F6CF92}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="13981" tabRatio="818" activeTab="5" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="818" activeTab="5" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <numFmt numFmtId="164" formatCode="0#"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,256 +2041,244 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2318,6 +2306,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2471,10 +2471,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,10 +2486,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.22514845490862E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,7 +2667,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99862953475457383</c:v>
+                  <c:v>-0.54463903501502708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,7 +2682,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.2335956242943835E-2</c:v>
+                  <c:v>-0.83867056794542394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,7 +3049,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98480775301220802</c:v>
+                  <c:v>-0.34202014332566871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,7 +3064,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17364817766693033</c:v>
+                  <c:v>-0.93969262078590843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,7 +5569,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8443" y="1698819"/>
+          <a:off x="8443" y="1703581"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -5984,7 +5984,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1336973" y="1702133"/>
+          <a:off x="1341735" y="1706895"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -6404,7 +6404,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8443" y="1698819"/>
+          <a:off x="8443" y="1703581"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -6819,7 +6819,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1336973" y="1702133"/>
+          <a:off x="1341735" y="1706895"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -7239,8 +7239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4854858" y="1653137"/>
-          <a:ext cx="1497372" cy="3919594"/>
+          <a:off x="4907245" y="1657899"/>
+          <a:ext cx="1502134" cy="3924356"/>
           <a:chOff x="4826283" y="1667424"/>
           <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
@@ -8079,8 +8079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4854858" y="1653137"/>
-          <a:ext cx="1497372" cy="3919594"/>
+          <a:off x="4907245" y="1657899"/>
+          <a:ext cx="1502134" cy="3924356"/>
           <a:chOff x="4826283" y="1667424"/>
           <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
@@ -8919,8 +8919,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="656478" y="4611726"/>
-          <a:ext cx="5770315" cy="6308916"/>
+          <a:off x="702472" y="4432525"/>
+          <a:ext cx="5869782" cy="5899111"/>
           <a:chOff x="8601419" y="4255632"/>
           <a:chExt cx="5835763" cy="6110022"/>
         </a:xfrm>
@@ -9034,7 +9034,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542757</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>108515</xdr:rowOff>
+      <xdr:rowOff>113277</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9049,8 +9049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3647123" y="501786"/>
-          <a:ext cx="2437959" cy="2614624"/>
+          <a:off x="3725491" y="474890"/>
+          <a:ext cx="2505052" cy="2523101"/>
           <a:chOff x="4414857" y="295255"/>
           <a:chExt cx="4324745" cy="4339070"/>
         </a:xfrm>
@@ -9515,69 +9515,69 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.41796875" customWidth="1"/>
-    <col min="2" max="2" width="147.83984375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="2" max="2" width="147.86328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2" ht="21.4">
       <c r="B1" s="51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="33">
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="16.899999999999999" thickBot="1">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="16.5">
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" ht="16.5">
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" ht="16.5">
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" ht="16.5">
       <c r="B8" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="16.899999999999999" thickBot="1">
       <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" ht="16.5">
       <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2" ht="16.5">
       <c r="B12" s="10"/>
     </row>
-    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2" ht="16.5">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2" ht="16.5">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:11" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.65" thickBot="1"/>
+    <row r="19" spans="2:11" ht="71.650000000000006" thickBot="1">
       <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="28.9" thickBot="1">
       <c r="B20" s="15" t="s">
         <v>47</v>
       </c>
@@ -9605,133 +9605,133 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="27.75">
       <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="14.65" thickBot="1">
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="14.65" thickBot="1">
       <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="14.65" thickBot="1">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="14.65" thickBot="1">
       <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="14.65" thickBot="1">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="14.65" thickBot="1">
       <c r="B40" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="27.75">
       <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52" s="14" t="s">
         <v>75</v>
       </c>
@@ -9751,145 +9751,145 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.05078125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="6.05078125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.94140625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="6.05078125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.203125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6.06640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.9296875" style="1" customWidth="1"/>
+    <col min="14" max="17" width="6.06640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.19921875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="134"/>
-      <c r="E1" s="131" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="E1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="154"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="157" t="s">
+      <c r="N1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="145" t="s">
+      <c r="O1" s="115"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="100" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="136"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="155"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="109"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="146"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="101"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="131" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+      <c r="E3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="154"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="157" t="s">
+      <c r="N3" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="158"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="149" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="147"/>
-      <c r="S3" s="145" t="s">
+      <c r="R3" s="102"/>
+      <c r="S3" s="100" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="132"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="155"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="151"/>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="112"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="106"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="140" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="142"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="143" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="144"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -9918,8 +9918,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
+    <row r="8" spans="1:20" ht="19.7" customHeight="1">
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
@@ -9976,34 +9976,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="124" t="str">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="124" t="str">
+      <c r="I9" s="126" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="124" t="str">
+      <c r="J9" s="127"/>
+      <c r="K9" s="126" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v/>
       </c>
-      <c r="L9" s="125"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="124" t="str">
+      <c r="N9" s="126" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="125"/>
+      <c r="O9" s="127"/>
       <c r="P9" s="43" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v/>
@@ -10025,56 +10025,56 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A10" s="130"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="128" t="str">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="129"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="124" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="128" t="str">
+      <c r="I11" s="124" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="130"/>
-      <c r="K11" s="128" t="str">
+      <c r="J11" s="125"/>
+      <c r="K11" s="124" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v/>
       </c>
-      <c r="L11" s="130"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="128" t="str">
+      <c r="N11" s="124" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="130"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v/>
@@ -10096,56 +10096,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="130"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="130"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="130"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="124" t="str">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="126" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="124" t="str">
+      <c r="I13" s="126" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="125"/>
-      <c r="K13" s="124" t="str">
+      <c r="J13" s="127"/>
+      <c r="K13" s="126" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v/>
       </c>
-      <c r="L13" s="125"/>
+      <c r="L13" s="127"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="124" t="str">
+      <c r="N13" s="126" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="125"/>
+      <c r="O13" s="127"/>
       <c r="P13" s="43" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v/>
@@ -10167,56 +10167,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="130"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="125"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="128" t="str">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="129"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="124" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="128" t="str">
+      <c r="I15" s="124" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="130"/>
-      <c r="K15" s="128" t="str">
+      <c r="J15" s="125"/>
+      <c r="K15" s="124" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v/>
       </c>
-      <c r="L15" s="130"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="128" t="str">
+      <c r="N15" s="124" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="130"/>
+      <c r="O15" s="125"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v/>
@@ -10238,56 +10238,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="130"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="130"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="124" t="str">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="126" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="124" t="str">
+      <c r="I17" s="126" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="125"/>
-      <c r="K17" s="124" t="str">
+      <c r="J17" s="127"/>
+      <c r="K17" s="126" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v/>
       </c>
-      <c r="L17" s="125"/>
+      <c r="L17" s="127"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="124" t="str">
+      <c r="N17" s="126" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="125"/>
+      <c r="O17" s="127"/>
       <c r="P17" s="43" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v/>
@@ -10309,56 +10309,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="130"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="128" t="str">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="129"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="124" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="128" t="str">
+      <c r="I19" s="124" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="130"/>
-      <c r="K19" s="128" t="str">
+      <c r="J19" s="125"/>
+      <c r="K19" s="124" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v/>
       </c>
-      <c r="L19" s="130"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="128" t="str">
+      <c r="N19" s="124" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="130"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v/>
@@ -10380,56 +10380,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="130"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="130"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="124" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="126" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="124" t="str">
+      <c r="I21" s="126" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="124" t="str">
+      <c r="J21" s="127"/>
+      <c r="K21" s="126" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="125"/>
+      <c r="L21" s="127"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="124" t="str">
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="125"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -10451,56 +10451,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="125"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A22" s="130"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="128" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="129"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="124" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="128" t="str">
+      <c r="I23" s="124" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="124" t="str">
+      <c r="J23" s="125"/>
+      <c r="K23" s="126" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="130"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="124" t="str">
+      <c r="N23" s="126" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -10522,56 +10522,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="130"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A24" s="130"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="125"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="130"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="124" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A25" s="162"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="126" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="124" t="str">
+      <c r="I25" s="126" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="125"/>
-      <c r="K25" s="124" t="str">
+      <c r="J25" s="127"/>
+      <c r="K25" s="126" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="125"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="124" t="str">
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="125"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -10593,167 +10593,269 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="127"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="139"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="127"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="139"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="55"/>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="115" t="s">
+    <row r="27" spans="1:20" ht="15" customHeight="1">
+      <c r="A27" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
-      <c r="O27" s="109">
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="O27" s="150">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="111">
+      <c r="Q27" s="152">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="113">
+      <c r="R27" s="154">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="111">
+      <c r="S27" s="152">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="O28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="112"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="100" t="s">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="O28" s="151"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="153"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="105"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="105"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="108"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.65" thickBot="1">
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="N11:N12"/>
@@ -10778,120 +10880,18 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -10908,157 +10908,157 @@
       <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.05078125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="6.05078125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.94140625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="6.05078125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.203125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6.06640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.9296875" style="1" customWidth="1"/>
+    <col min="14" max="17" width="6.06640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.19921875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="133">
+      <c r="B1" s="120">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="E1" s="131" t="s">
+      <c r="C1" s="121"/>
+      <c r="E1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="147">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="102">
         <v>38</v>
       </c>
-      <c r="I1" s="154"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="157" t="s">
+      <c r="N1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="147">
+      <c r="O1" s="115"/>
+      <c r="P1" s="102">
         <v>3500</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="145" t="s">
+      <c r="Q1" s="102"/>
+      <c r="R1" s="100" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="136"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="155"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="109"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="146"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="101"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="131" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+      <c r="E3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="147">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="102">
         <v>6.5</v>
       </c>
-      <c r="I3" s="154"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="157" t="s">
+      <c r="N3" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="158"/>
-      <c r="P3" s="147">
+      <c r="O3" s="115"/>
+      <c r="P3" s="102">
         <v>215</v>
       </c>
-      <c r="Q3" s="149" t="s">
+      <c r="Q3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="147">
+      <c r="R3" s="102">
         <v>17</v>
       </c>
-      <c r="S3" s="145" t="s">
+      <c r="S3" s="100" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="132"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="155"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="151"/>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="112"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="106"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="140" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="142"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="143" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="144"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -11087,8 +11087,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137" t="s">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1">
+      <c r="A8" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -11147,50 +11147,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="122"/>
-      <c r="B9" s="125">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127">
         <v>90</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="127">
         <v>3500</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="127">
         <v>215</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="127">
         <v>17</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="127">
         <v>-10</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9" s="127">
         <v>95</v>
       </c>
-      <c r="H9" s="124">
+      <c r="H9" s="126">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="126">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="125">
+      <c r="J9" s="127">
         <v>13</v>
       </c>
-      <c r="K9" s="124">
+      <c r="K9" s="126">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="127">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="124">
+      <c r="N9" s="126">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="125">
+      <c r="O9" s="127">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -11214,74 +11214,74 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121" t="s">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A10" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="122"/>
-      <c r="B11" s="130">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="129"/>
+      <c r="B11" s="125">
         <v>90</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="125">
         <v>3500</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="125">
         <v>215</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="125">
         <v>17</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="125">
         <v>-10</v>
       </c>
-      <c r="G11" s="130">
+      <c r="G11" s="125">
         <v>95</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="124">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="128">
+      <c r="I11" s="124">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="125">
         <v>13</v>
       </c>
-      <c r="K11" s="128">
+      <c r="K11" s="124">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="130">
+      <c r="L11" s="125">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="128">
+      <c r="N11" s="124">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="130">
+      <c r="O11" s="125">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -11305,74 +11305,74 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121" t="s">
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="130"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="130"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="122"/>
-      <c r="B13" s="125">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="129"/>
+      <c r="B13" s="127">
         <v>131</v>
       </c>
-      <c r="C13" s="125">
+      <c r="C13" s="127">
         <v>3500</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="127">
         <v>215</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="127">
         <v>17</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="127">
         <v>-10</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="127">
         <v>95</v>
       </c>
-      <c r="H13" s="124">
+      <c r="H13" s="126">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="124">
+      <c r="I13" s="126">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="125">
+      <c r="J13" s="127">
         <v>13</v>
       </c>
-      <c r="K13" s="124">
+      <c r="K13" s="126">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="125">
+      <c r="L13" s="127">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="124">
+      <c r="N13" s="126">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="125">
+      <c r="O13" s="127">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -11396,74 +11396,74 @@
         <v>36.300000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121" t="s">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="125"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="129"/>
+      <c r="B15" s="138">
         <v>131</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="138">
         <v>3500</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="138">
         <v>215</v>
       </c>
-      <c r="E15" s="123">
+      <c r="E15" s="138">
         <v>17</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="138">
         <v>-10</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="138">
         <v>95</v>
       </c>
-      <c r="H15" s="128">
+      <c r="H15" s="124">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="128">
+      <c r="I15" s="124">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="130">
+      <c r="J15" s="125">
         <v>13</v>
       </c>
-      <c r="K15" s="128">
+      <c r="K15" s="124">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="130">
+      <c r="L15" s="125">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="128">
+      <c r="N15" s="124">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="130">
+      <c r="O15" s="125">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -11487,74 +11487,74 @@
         <v>35.800000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="130"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="122"/>
-      <c r="B17" s="125">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127">
         <v>131</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="127">
         <v>3500</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17" s="127">
         <v>215</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="127">
         <v>17</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="127">
         <v>-10</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="127">
         <v>95</v>
       </c>
-      <c r="H17" s="124">
+      <c r="H17" s="126">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="124">
+      <c r="I17" s="126">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="125">
+      <c r="J17" s="127">
         <v>13</v>
       </c>
-      <c r="K17" s="124">
+      <c r="K17" s="126">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="125">
+      <c r="L17" s="127">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="124">
+      <c r="N17" s="126">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="125">
+      <c r="O17" s="127">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -11578,74 +11578,74 @@
         <v>35.000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121" t="s">
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="122"/>
-      <c r="B19" s="123">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="129"/>
+      <c r="B19" s="138">
         <v>131</v>
       </c>
-      <c r="C19" s="123">
+      <c r="C19" s="138">
         <v>3500</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="138">
         <v>215</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="138">
         <v>17</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="138">
         <v>-10</v>
       </c>
-      <c r="G19" s="123">
+      <c r="G19" s="138">
         <v>95</v>
       </c>
-      <c r="H19" s="128">
+      <c r="H19" s="124">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="128">
+      <c r="I19" s="124">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="130">
+      <c r="J19" s="125">
         <v>13</v>
       </c>
-      <c r="K19" s="128">
+      <c r="K19" s="124">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="130">
+      <c r="L19" s="125">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="128">
+      <c r="N19" s="124">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="130">
+      <c r="O19" s="125">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -11669,58 +11669,58 @@
         <v>34.20000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="s">
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="130"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="124" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="126" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="124" t="str">
+      <c r="I21" s="126" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="124" t="str">
+      <c r="J21" s="127"/>
+      <c r="K21" s="126" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="125"/>
+      <c r="L21" s="127"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="124" t="str">
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="125"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -11742,56 +11742,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="125"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A22" s="130"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="128" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="129"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="124" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="128" t="str">
+      <c r="I23" s="124" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="124" t="str">
+      <c r="J23" s="125"/>
+      <c r="K23" s="126" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="130"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="124" t="str">
+      <c r="N23" s="126" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -11813,56 +11813,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="130"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A24" s="130"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="125"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="130"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="124" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A25" s="162"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="126" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="124" t="str">
+      <c r="I25" s="126" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="125"/>
-      <c r="K25" s="124" t="str">
+      <c r="J25" s="127"/>
+      <c r="K25" s="126" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="125"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="124" t="str">
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="125"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -11884,168 +11884,268 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="127"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="139"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="127"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="139"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="55"/>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="115" t="s">
+    <row r="27" spans="1:20" ht="15" customHeight="1">
+      <c r="A27" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
-      <c r="O27" s="109">
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="O27" s="150">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="111">
+      <c r="Q27" s="152">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="113">
+      <c r="R27" s="154">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="111">
+      <c r="S27" s="152">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="O28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="112"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="100" t="s">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="O28" s="151"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="153"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="105"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="105"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="108"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.65" thickBot="1">
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="N6:T6"/>
@@ -12070,119 +12170,19 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12198,138 +12198,138 @@
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.05078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.05078125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="1" customWidth="1"/>
-    <col min="5" max="11" width="6.05078125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="0.94140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.72265625" style="1" customWidth="1"/>
-    <col min="15" max="17" width="6.05078125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1328125" style="1" customWidth="1"/>
+    <col min="5" max="11" width="6.06640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.9296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.06640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="177" t="s">
+      <c r="M1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="163" t="s">
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="181" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="164"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="176" t="s">
+      <c r="M2" s="174"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="182"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="G3" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="165" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="163" t="s">
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="181" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="164"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="182"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" thickBot="1">
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="140" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="142"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="184"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -12357,7 +12357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="137"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
@@ -12415,34 +12415,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="124" t="str">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v/>
       </c>
-      <c r="H9" s="124" t="str">
+      <c r="H9" s="126" t="str">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="124" t="str">
+      <c r="I9" s="127"/>
+      <c r="J9" s="126" t="str">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v/>
       </c>
-      <c r="K9" s="125"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="124" t="str">
+      <c r="M9" s="129"/>
+      <c r="N9" s="126" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="125"/>
+      <c r="O9" s="127"/>
       <c r="P9" s="42" t="str">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
         <v/>
@@ -12464,56 +12464,56 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="125"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="128" t="str">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="124" t="str">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v/>
       </c>
-      <c r="H11" s="128" t="str">
+      <c r="H11" s="124" t="str">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="128" t="str">
+      <c r="I11" s="125"/>
+      <c r="J11" s="124" t="str">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v/>
       </c>
-      <c r="K11" s="130"/>
+      <c r="K11" s="125"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="128" t="str">
+      <c r="M11" s="129"/>
+      <c r="N11" s="124" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="130"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
         <v/>
@@ -12535,56 +12535,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="130"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="124" t="str">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="126" t="str">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v/>
       </c>
-      <c r="H13" s="124" t="str">
+      <c r="H13" s="126" t="str">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="125"/>
-      <c r="J13" s="124" t="str">
+      <c r="I13" s="127"/>
+      <c r="J13" s="126" t="str">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v/>
       </c>
-      <c r="K13" s="125"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="124" t="str">
+      <c r="M13" s="129"/>
+      <c r="N13" s="126" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="125"/>
+      <c r="O13" s="127"/>
       <c r="P13" s="42" t="str">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
         <v/>
@@ -12606,56 +12606,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="125"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="128" t="str">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="124" t="str">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v/>
       </c>
-      <c r="H15" s="128" t="str">
+      <c r="H15" s="124" t="str">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="130"/>
-      <c r="J15" s="128" t="str">
+      <c r="I15" s="125"/>
+      <c r="J15" s="124" t="str">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v/>
       </c>
-      <c r="K15" s="130"/>
+      <c r="K15" s="125"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="128" t="str">
+      <c r="M15" s="129"/>
+      <c r="N15" s="124" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="130"/>
+      <c r="O15" s="125"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
         <v/>
@@ -12677,56 +12677,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="130"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="125"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="124" t="str">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="126" t="str">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v/>
       </c>
-      <c r="H17" s="124" t="str">
+      <c r="H17" s="126" t="str">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="124" t="str">
+      <c r="I17" s="127"/>
+      <c r="J17" s="126" t="str">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v/>
       </c>
-      <c r="K17" s="125"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="124" t="str">
+      <c r="M17" s="129"/>
+      <c r="N17" s="126" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="125"/>
+      <c r="O17" s="127"/>
       <c r="P17" s="42" t="str">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
         <v/>
@@ -12748,56 +12748,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="128" t="str">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="124" t="str">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v/>
       </c>
-      <c r="H19" s="128" t="str">
+      <c r="H19" s="124" t="str">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="130"/>
-      <c r="J19" s="128" t="str">
+      <c r="I19" s="125"/>
+      <c r="J19" s="124" t="str">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v/>
       </c>
-      <c r="K19" s="130"/>
+      <c r="K19" s="125"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="128" t="str">
+      <c r="M19" s="129"/>
+      <c r="N19" s="124" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="130"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
         <v/>
@@ -12819,56 +12819,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="130"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="124" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="126" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="124" t="str">
+      <c r="H21" s="126" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="125"/>
-      <c r="J21" s="124" t="str">
+      <c r="I21" s="127"/>
+      <c r="J21" s="126" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="125"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="124" t="str">
+      <c r="M21" s="129"/>
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="125"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -12890,56 +12890,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="128" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="124" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="128" t="str">
+      <c r="H23" s="124" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="128" t="str">
+      <c r="I23" s="125"/>
+      <c r="J23" s="124" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="130"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="128" t="str">
+      <c r="M23" s="129"/>
+      <c r="N23" s="124" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -12961,56 +12961,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="130"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="124" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="126" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="124" t="str">
+      <c r="H25" s="126" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="125"/>
-      <c r="J25" s="124" t="str">
+      <c r="I25" s="127"/>
+      <c r="J25" s="126" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="125"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="124" t="str">
+      <c r="M25" s="162"/>
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="125"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -13032,44 +13032,44 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="124"/>
-      <c r="O26" s="125"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="127"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+    <row r="27" spans="1:20" ht="24.75" thickBot="1">
+      <c r="A27" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -13091,24 +13091,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="108"/>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
+      <c r="A28" s="147"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -13133,126 +13253,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13268,150 +13268,150 @@
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.05078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.05078125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="1" customWidth="1"/>
-    <col min="5" max="11" width="6.05078125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="0.94140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.72265625" style="1" customWidth="1"/>
-    <col min="15" max="17" width="6.05078125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1328125" style="1" customWidth="1"/>
+    <col min="5" max="11" width="6.06640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.9296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.06640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="172">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="167">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="173"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="167">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="171">
         <v>38</v>
       </c>
-      <c r="K1" s="167"/>
+      <c r="K1" s="171"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="177" t="s">
+      <c r="M1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="179">
+      <c r="N1" s="175">
         <v>3500</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="163" t="s">
+      <c r="O1" s="175"/>
+      <c r="P1" s="181" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="164"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="176" t="s">
+      <c r="M2" s="174"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="182"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="G3" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="167">
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="171">
         <v>6.5</v>
       </c>
-      <c r="K3" s="167"/>
+      <c r="K3" s="171"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="167">
+      <c r="N3" s="171">
         <v>215</v>
       </c>
-      <c r="O3" s="167"/>
-      <c r="P3" s="165" t="s">
+      <c r="O3" s="171"/>
+      <c r="P3" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="167">
+      <c r="Q3" s="171">
         <v>17</v>
       </c>
-      <c r="R3" s="167"/>
-      <c r="S3" s="163" t="s">
+      <c r="R3" s="171"/>
+      <c r="S3" s="181" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="164"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="177"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="182"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" thickBot="1">
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="140" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="142"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="184"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -13439,7 +13439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="137" t="s">
+      <c r="M8" s="128" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -13499,50 +13499,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="125">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="127">
         <v>90</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="127">
         <v>3500</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="127">
         <v>170</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="127">
         <v>17</v>
       </c>
-      <c r="E9" s="125">
+      <c r="E9" s="127">
         <v>-10</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="127">
         <v>95</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="126">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="124">
+      <c r="H9" s="126">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="125">
+      <c r="I9" s="127">
         <v>13</v>
       </c>
-      <c r="J9" s="124">
+      <c r="J9" s="126">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="125">
+      <c r="K9" s="127">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="124">
+      <c r="M9" s="129"/>
+      <c r="N9" s="126">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="125">
+      <c r="O9" s="127">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -13566,74 +13566,74 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="124"/>
-      <c r="O10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="130">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="125">
         <v>90</v>
       </c>
-      <c r="B11" s="130">
+      <c r="B11" s="125">
         <v>3500</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="125">
         <v>215</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="125">
         <v>17</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="125">
         <v>-10</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="125">
         <v>95</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="124">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="124">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="125">
         <v>13</v>
       </c>
-      <c r="J11" s="128">
+      <c r="J11" s="124">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="130">
+      <c r="K11" s="125">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="128">
+      <c r="M11" s="129"/>
+      <c r="N11" s="124">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="130">
+      <c r="O11" s="125">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -13657,74 +13657,74 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="130"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="121" t="s">
+      <c r="M12" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="128"/>
-      <c r="O12" s="130"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="125">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="127">
         <v>131</v>
       </c>
-      <c r="B13" s="125">
+      <c r="B13" s="127">
         <v>3500</v>
       </c>
-      <c r="C13" s="125">
+      <c r="C13" s="127">
         <v>215</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="127">
         <v>17</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="127">
         <v>-10</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="127">
         <v>95</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G13" s="126">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="124">
+      <c r="H13" s="126">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="125">
+      <c r="I13" s="127">
         <v>13</v>
       </c>
-      <c r="J13" s="124">
+      <c r="J13" s="126">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="125">
+      <c r="K13" s="127">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="124">
+      <c r="M13" s="129"/>
+      <c r="N13" s="126">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="125">
+      <c r="O13" s="127">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -13748,74 +13748,74 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="125"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="121" t="s">
+      <c r="M14" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="124"/>
-      <c r="O14" s="125"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="123">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="138">
         <v>131</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="138">
         <v>3500</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="138">
         <v>215</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="138">
         <v>17</v>
       </c>
-      <c r="E15" s="123">
+      <c r="E15" s="138">
         <v>-10</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="138">
         <v>95</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="124">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="128">
+      <c r="H15" s="124">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="130">
+      <c r="I15" s="125">
         <v>13</v>
       </c>
-      <c r="J15" s="128">
+      <c r="J15" s="124">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="130">
+      <c r="K15" s="125">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="128">
+      <c r="M15" s="129"/>
+      <c r="N15" s="124">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="130">
+      <c r="O15" s="125">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -13839,74 +13839,74 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="130"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="125"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="121" t="s">
+      <c r="M16" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="128"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="125">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="127">
         <v>131</v>
       </c>
-      <c r="B17" s="125">
+      <c r="B17" s="127">
         <v>3500</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="127">
         <v>215</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17" s="127">
         <v>17</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="127">
         <v>-10</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="127">
         <v>95</v>
       </c>
-      <c r="G17" s="124">
+      <c r="G17" s="126">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="124">
+      <c r="H17" s="126">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="125">
+      <c r="I17" s="127">
         <v>13</v>
       </c>
-      <c r="J17" s="124">
+      <c r="J17" s="126">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="125">
+      <c r="K17" s="127">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="124">
+      <c r="M17" s="129"/>
+      <c r="N17" s="126">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="125">
+      <c r="O17" s="127">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -13930,74 +13930,74 @@
         <v>34.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="121" t="s">
+      <c r="M18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="123">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="138">
         <v>131</v>
       </c>
-      <c r="B19" s="123">
+      <c r="B19" s="138">
         <v>3500</v>
       </c>
-      <c r="C19" s="123">
+      <c r="C19" s="138">
         <v>215</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="138">
         <v>17</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="138">
         <v>-10</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="138">
         <v>95</v>
       </c>
-      <c r="G19" s="128">
+      <c r="G19" s="124">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="128">
+      <c r="H19" s="124">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="130">
+      <c r="I19" s="125">
         <v>13</v>
       </c>
-      <c r="J19" s="128">
+      <c r="J19" s="124">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="130">
+      <c r="K19" s="125">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="128">
+      <c r="M19" s="129"/>
+      <c r="N19" s="124">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="130">
+      <c r="O19" s="125">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -14021,58 +14021,58 @@
         <v>34.100000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="130"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="121" t="s">
+      <c r="M20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="128"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="124" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="126" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="124" t="str">
+      <c r="H21" s="126" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="125"/>
-      <c r="J21" s="124" t="str">
+      <c r="I21" s="127"/>
+      <c r="J21" s="126" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="125"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="124" t="str">
+      <c r="M21" s="129"/>
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="125"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -14094,56 +14094,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="128" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="124" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="128" t="str">
+      <c r="H23" s="124" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="128" t="str">
+      <c r="I23" s="125"/>
+      <c r="J23" s="124" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="130"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="128" t="str">
+      <c r="M23" s="129"/>
+      <c r="N23" s="124" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -14165,56 +14165,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="130"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="124" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="126" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="124" t="str">
+      <c r="H25" s="126" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="125"/>
-      <c r="J25" s="124" t="str">
+      <c r="I25" s="127"/>
+      <c r="J25" s="126" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="125"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="124" t="str">
+      <c r="M25" s="162"/>
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="125"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -14236,44 +14236,44 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="124"/>
-      <c r="O26" s="125"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="127"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="s">
+    <row r="27" spans="1:20" ht="24.75" thickBot="1">
+      <c r="A27" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -14295,36 +14295,132 @@
         <v>3.8999999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="108"/>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
+      <c r="A28" s="147"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="A6:K6"/>
@@ -14349,114 +14445,18 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14468,24 +14468,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="4.16796875" customWidth="1"/>
-    <col min="3" max="3" width="21.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.91796875" customWidth="1"/>
-    <col min="5" max="5" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14453125" customWidth="1"/>
+    <col min="2" max="2" width="4.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.9296875" customWidth="1"/>
+    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.03515625" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="14.65" thickBot="1"/>
+    <row r="2" spans="2:22" ht="18.75" thickBot="1">
       <c r="B2" s="194" t="s">
         <v>95</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -14525,7 +14525,7 @@
       <c r="U3" s="201"/>
       <c r="V3" s="202"/>
     </row>
-    <row r="4" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="16.899999999999999">
       <c r="B4" s="66"/>
       <c r="C4" s="77" t="s">
         <v>82</v>
@@ -14558,7 +14558,7 @@
       <c r="U4" s="204"/>
       <c r="V4" s="205"/>
     </row>
-    <row r="5" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="16.899999999999999">
       <c r="B5" s="66"/>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -14591,13 +14591,13 @@
       <c r="U5" s="204"/>
       <c r="V5" s="205"/>
     </row>
-    <row r="6" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="16.899999999999999">
       <c r="B6" s="66"/>
       <c r="C6" s="79" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="80">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E6" s="98"/>
       <c r="F6" s="98"/>
@@ -14617,7 +14617,7 @@
       <c r="U6" s="204"/>
       <c r="V6" s="205"/>
     </row>
-    <row r="7" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="16.899999999999999">
       <c r="B7" s="66"/>
       <c r="C7" s="81" t="s">
         <v>86</v>
@@ -14634,7 +14634,7 @@
       </c>
       <c r="H7" s="98">
         <f>COS((Wd-90)*(PI()/180))</f>
-        <v>0.98480775301220802</v>
+        <v>-0.34202014332566871</v>
       </c>
       <c r="I7" s="98"/>
       <c r="J7" s="99"/>
@@ -14650,7 +14650,7 @@
       <c r="U7" s="204"/>
       <c r="V7" s="205"/>
     </row>
-    <row r="8" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="16.899999999999999">
       <c r="B8" s="66"/>
       <c r="C8" s="79" t="s">
         <v>104</v>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="H8" s="98">
         <f>-SIN((Wd-90)*(PI()/180))</f>
-        <v>0.17364817766693033</v>
+        <v>-0.93969262078590843</v>
       </c>
       <c r="I8" s="98"/>
       <c r="J8" s="99"/>
@@ -14683,7 +14683,7 @@
       <c r="U8" s="204"/>
       <c r="V8" s="205"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22">
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="67"/>
@@ -14705,7 +14705,7 @@
       <c r="U9" s="204"/>
       <c r="V9" s="205"/>
     </row>
-    <row r="10" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="16.899999999999999">
       <c r="B10" s="66"/>
       <c r="C10" s="199" t="s">
         <v>23</v>
@@ -14729,11 +14729,11 @@
       <c r="U10" s="204"/>
       <c r="V10" s="205"/>
     </row>
-    <row r="11" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" ht="17.25" thickBot="1">
       <c r="B11" s="66"/>
       <c r="C11" s="197">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(MOD(Wd-HEading,360)))*(Ws/TrueAirSpeed)))),0),"")</f>
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="198"/>
       <c r="E11" s="98"/>
@@ -14754,7 +14754,7 @@
       <c r="U11" s="207"/>
       <c r="V11" s="208"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22">
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -14767,19 +14767,19 @@
       </c>
       <c r="H12" s="98">
         <f>COS((Wdm-90)*(PI()/180))</f>
-        <v>0.99862953475457383</v>
+        <v>-0.54463903501502708</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="99"/>
     </row>
-    <row r="13" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" ht="16.899999999999999">
       <c r="B13" s="66"/>
       <c r="C13" s="96" t="s">
         <v>105</v>
       </c>
       <c r="D13" s="97">
         <f>MOD(Wd+DEV,360)</f>
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="E13" s="98"/>
       <c r="F13" s="98" t="s">
@@ -14790,12 +14790,12 @@
       </c>
       <c r="H13" s="98">
         <f>-SIN((Wdm-90)*(PI()/180))</f>
-        <v>-5.2335956242943835E-2</v>
+        <v>-0.83867056794542394</v>
       </c>
       <c r="I13" s="98"/>
       <c r="J13" s="99"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22">
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -14806,7 +14806,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22">
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -14817,7 +14817,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="68"/>
     </row>
-    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="14.65" thickBot="1">
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
@@ -14828,7 +14828,7 @@
       <c r="I16" s="67"/>
       <c r="J16" s="68"/>
     </row>
-    <row r="17" spans="2:22" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" ht="18.399999999999999">
       <c r="B17" s="194" t="s">
         <v>96</v>
       </c>
@@ -14841,7 +14841,7 @@
       <c r="I17" s="195"/>
       <c r="J17" s="196"/>
     </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" ht="14.65" thickBot="1">
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
@@ -14852,13 +14852,13 @@
       <c r="I18" s="67"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="17.25" thickBot="1">
       <c r="B19" s="66"/>
       <c r="C19" s="74" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="76">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="86" t="s">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="G19" s="87">
         <f>Ws*ABS(SIN(MOD(Wdm-(RWY*10),360)*(PI()/180)))</f>
-        <v>0.62803147491532596</v>
+        <v>10.06404681534509</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>91</v>
@@ -14877,7 +14877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1">
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
@@ -14887,7 +14887,7 @@
       </c>
       <c r="G20" s="84">
         <f>Ws*(COS(MOD(Wdm-(RWY*10),360)*(PI()/180)))</f>
-        <v>11.983554417054886</v>
+        <v>6.5356684201803201</v>
       </c>
       <c r="H20" s="85" t="s">
         <v>91</v>
@@ -14908,7 +14908,7 @@
       <c r="U20" s="186"/>
       <c r="V20" s="187"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22">
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
@@ -14932,7 +14932,7 @@
       <c r="U21" s="189"/>
       <c r="V21" s="190"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22">
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -14954,18 +14954,18 @@
       <c r="U22" s="189"/>
       <c r="V22" s="190"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22">
       <c r="B23" s="66"/>
       <c r="C23" s="69" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="69">
         <f>-E23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23" s="69">
         <f>COS((RWY*10-90)*(PI()/180))</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
@@ -14984,18 +14984,18 @@
       <c r="U23" s="189"/>
       <c r="V23" s="190"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22">
       <c r="B24" s="66"/>
       <c r="C24" s="69" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="69">
         <f>-E24</f>
-        <v>0</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="E24" s="69">
         <f>-SIN((RWY*10-90)*(PI()/180))</f>
-        <v>0</v>
+        <v>-1.22514845490862E-16</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
@@ -15014,7 +15014,7 @@
       <c r="U24" s="189"/>
       <c r="V24" s="190"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22">
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -15036,7 +15036,7 @@
       <c r="U25" s="189"/>
       <c r="V25" s="190"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22">
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -15058,7 +15058,7 @@
       <c r="U26" s="189"/>
       <c r="V26" s="190"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22">
       <c r="B27" s="66"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -15080,7 +15080,7 @@
       <c r="U27" s="189"/>
       <c r="V27" s="190"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22">
       <c r="B28" s="66"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -15102,7 +15102,7 @@
       <c r="U28" s="189"/>
       <c r="V28" s="190"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22">
       <c r="B29" s="66"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -15124,7 +15124,7 @@
       <c r="U29" s="189"/>
       <c r="V29" s="190"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22">
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -15146,7 +15146,7 @@
       <c r="U30" s="189"/>
       <c r="V30" s="190"/>
     </row>
-    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" ht="14.65" thickBot="1">
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -15168,7 +15168,7 @@
       <c r="U31" s="192"/>
       <c r="V31" s="193"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22">
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
@@ -15179,7 +15179,7 @@
       <c r="I32" s="67"/>
       <c r="J32" s="68"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="B33" s="66"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -15190,7 +15190,7 @@
       <c r="I33" s="67"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
@@ -15201,7 +15201,7 @@
       <c r="I34" s="67"/>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
@@ -15212,7 +15212,7 @@
       <c r="I35" s="67"/>
       <c r="J35" s="68"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="66"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -15223,7 +15223,7 @@
       <c r="I36" s="67"/>
       <c r="J36" s="68"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="66"/>
       <c r="C37" s="67"/>
       <c r="D37" s="67"/>
@@ -15234,7 +15234,7 @@
       <c r="I37" s="67"/>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10">
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
@@ -15245,7 +15245,7 @@
       <c r="I38" s="67"/>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10">
       <c r="B39" s="66"/>
       <c r="C39" s="67"/>
       <c r="D39" s="67"/>
@@ -15256,7 +15256,7 @@
       <c r="I39" s="67"/>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10">
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -15267,7 +15267,7 @@
       <c r="I40" s="67"/>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
       <c r="D41" s="67"/>
@@ -15278,7 +15278,7 @@
       <c r="I41" s="67"/>
       <c r="J41" s="68"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="66"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
@@ -15289,7 +15289,7 @@
       <c r="I42" s="67"/>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10">
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
       <c r="D43" s="67"/>
@@ -15300,7 +15300,7 @@
       <c r="I43" s="67"/>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10">
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
@@ -15311,7 +15311,7 @@
       <c r="I44" s="67"/>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="66"/>
       <c r="C45" s="67"/>
       <c r="D45" s="67"/>
@@ -15322,7 +15322,7 @@
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" s="66"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
@@ -15333,7 +15333,7 @@
       <c r="I46" s="67"/>
       <c r="J46" s="68"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="66"/>
       <c r="C47" s="67"/>
       <c r="D47" s="67"/>
@@ -15344,7 +15344,7 @@
       <c r="I47" s="67"/>
       <c r="J47" s="68"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="66"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
@@ -15355,7 +15355,7 @@
       <c r="I48" s="67"/>
       <c r="J48" s="68"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10">
       <c r="B49" s="66"/>
       <c r="C49" s="67"/>
       <c r="D49" s="67"/>
@@ -15366,7 +15366,7 @@
       <c r="I49" s="67"/>
       <c r="J49" s="68"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10">
       <c r="B50" s="66"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
@@ -15377,7 +15377,7 @@
       <c r="I50" s="67"/>
       <c r="J50" s="68"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10">
       <c r="B51" s="66"/>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
@@ -15388,7 +15388,7 @@
       <c r="I51" s="67"/>
       <c r="J51" s="68"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10">
       <c r="B52" s="66"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
@@ -15399,7 +15399,7 @@
       <c r="I52" s="67"/>
       <c r="J52" s="68"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10">
       <c r="B53" s="66"/>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
@@ -15410,7 +15410,7 @@
       <c r="I53" s="67"/>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
@@ -15421,7 +15421,7 @@
       <c r="I54" s="67"/>
       <c r="J54" s="68"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10">
       <c r="B55" s="66"/>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
@@ -15432,7 +15432,7 @@
       <c r="I55" s="67"/>
       <c r="J55" s="68"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10">
       <c r="B56" s="66"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
@@ -15443,7 +15443,7 @@
       <c r="I56" s="67"/>
       <c r="J56" s="68"/>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="14.65" thickBot="1">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
@@ -15478,7 +15478,7 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15493,22 +15493,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="64.03125" customWidth="1"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>106</v>
       </c>

--- a/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282F89F2-47A0-4A17-AE14-F93388F6CF92}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8135C96C-AE2D-4DAE-A986-7C022C2F0892}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="818" activeTab="5" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <numFmt numFmtId="164" formatCode="0#"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,6 +2041,153 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,13 +2211,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,145 +2247,20 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2275,10 +2291,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2306,18 +2318,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5569,7 +5569,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8443" y="1703581"/>
+          <a:off x="8443" y="1698819"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -5984,7 +5984,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1341735" y="1706895"/>
+          <a:off x="1336973" y="1702133"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -6404,7 +6404,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8443" y="1703581"/>
+          <a:off x="8443" y="1698819"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -6819,7 +6819,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1341735" y="1706895"/>
+          <a:off x="1336973" y="1702133"/>
           <a:ext cx="78458" cy="3895232"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
@@ -7239,8 +7239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4907245" y="1657899"/>
-          <a:ext cx="1502134" cy="3924356"/>
+          <a:off x="4854858" y="1653137"/>
+          <a:ext cx="1497372" cy="3919594"/>
           <a:chOff x="4826283" y="1667424"/>
           <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
@@ -8079,8 +8079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4907245" y="1657899"/>
-          <a:ext cx="1502134" cy="3924356"/>
+          <a:off x="4854858" y="1653137"/>
+          <a:ext cx="1497372" cy="3919594"/>
           <a:chOff x="4826283" y="1667424"/>
           <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
@@ -8919,8 +8919,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="702472" y="4432525"/>
-          <a:ext cx="5869782" cy="5899111"/>
+          <a:off x="697029" y="4405992"/>
+          <a:ext cx="5835764" cy="6024976"/>
           <a:chOff x="8601419" y="4255632"/>
           <a:chExt cx="5835763" cy="6110022"/>
         </a:xfrm>
@@ -9049,8 +9049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3725491" y="474890"/>
-          <a:ext cx="2505052" cy="2523101"/>
+          <a:off x="3700318" y="463324"/>
+          <a:ext cx="2490764" cy="2516978"/>
           <a:chOff x="4414857" y="295255"/>
           <a:chExt cx="4324745" cy="4339070"/>
         </a:xfrm>
@@ -9515,69 +9515,69 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
     <col min="2" max="2" width="147.86328125" style="14" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="21.4">
+    <row r="1" spans="2:2" ht="21.4" x14ac:dyDescent="0.45">
       <c r="B1" s="51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="33">
+    <row r="3" spans="2:2" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="16.899999999999999" thickBot="1">
+    <row r="4" spans="2:2" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="2:2" ht="16.5">
+    <row r="5" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="16.5">
+    <row r="6" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="16.5">
+    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16.5">
+    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="16.899999999999999" thickBot="1">
+    <row r="9" spans="2:2" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.5">
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.5">
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
     </row>
-    <row r="15" spans="2:2" ht="16.5">
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="16.5">
+    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:11" ht="14.65" thickBot="1"/>
-    <row r="19" spans="2:11" ht="71.650000000000006" thickBot="1">
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:11" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" ht="28.9" thickBot="1">
+    <row r="20" spans="2:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="15" t="s">
         <v>47</v>
       </c>
@@ -9605,133 +9605,133 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="27.75">
+    <row r="25" spans="2:11" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:11" ht="14.65" thickBot="1">
+    <row r="28" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.65" thickBot="1">
+    <row r="35" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.65" thickBot="1">
+    <row r="36" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:2" ht="14.65" thickBot="1">
+    <row r="37" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.65" thickBot="1">
+    <row r="39" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" ht="14.65" thickBot="1">
+    <row r="40" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" ht="27.75">
+    <row r="45" spans="2:2" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="14" t="s">
         <v>75</v>
       </c>
@@ -9751,7 +9751,7 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.9296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
@@ -9763,133 +9763,133 @@
     <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="E1" s="107" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="134"/>
+      <c r="E1" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="111"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="154"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="100" t="s">
+      <c r="O1" s="158"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="145" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="112"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="132"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="101"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="146"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="107" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="111"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="154"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="104" t="s">
+      <c r="O3" s="158"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="100" t="s">
+      <c r="R3" s="147"/>
+      <c r="S3" s="145" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="112"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="106"/>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="132"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="155"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="151"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1"/>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1">
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -9918,8 +9918,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="128"/>
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="137"/>
       <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
@@ -9976,34 +9976,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="126" t="str">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="122"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="126" t="str">
+      <c r="I9" s="124" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="126" t="str">
+      <c r="J9" s="125"/>
+      <c r="K9" s="124" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v/>
       </c>
-      <c r="L9" s="127"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="126" t="str">
+      <c r="N9" s="124" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="127"/>
+      <c r="O9" s="125"/>
       <c r="P9" s="43" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v/>
@@ -10025,56 +10025,56 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="121"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="124" t="str">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="122"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="128" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="124" t="str">
+      <c r="I11" s="128" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="125"/>
-      <c r="K11" s="124" t="str">
+      <c r="J11" s="130"/>
+      <c r="K11" s="128" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v/>
       </c>
-      <c r="L11" s="125"/>
+      <c r="L11" s="130"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="124" t="str">
+      <c r="N11" s="128" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="125"/>
+      <c r="O11" s="130"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v/>
@@ -10096,56 +10096,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="130"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="121"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="130"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="126" t="str">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="122"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="124" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="126" t="str">
+      <c r="I13" s="124" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="126" t="str">
+      <c r="J13" s="125"/>
+      <c r="K13" s="124" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v/>
       </c>
-      <c r="L13" s="127"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="126" t="str">
+      <c r="N13" s="124" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="127"/>
+      <c r="O13" s="125"/>
       <c r="P13" s="43" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v/>
@@ -10167,56 +10167,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="130"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="121"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="129"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="124" t="str">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="122"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="128" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="124" t="str">
+      <c r="I15" s="128" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="124" t="str">
+      <c r="J15" s="130"/>
+      <c r="K15" s="128" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v/>
       </c>
-      <c r="L15" s="125"/>
+      <c r="L15" s="130"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="124" t="str">
+      <c r="N15" s="128" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="125"/>
+      <c r="O15" s="130"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v/>
@@ -10238,56 +10238,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="130"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="130"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="126" t="str">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="122"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="124" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="126" t="str">
+      <c r="I17" s="124" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="127"/>
-      <c r="K17" s="126" t="str">
+      <c r="J17" s="125"/>
+      <c r="K17" s="124" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v/>
       </c>
-      <c r="L17" s="127"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="126" t="str">
+      <c r="N17" s="124" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="127"/>
+      <c r="O17" s="125"/>
       <c r="P17" s="43" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v/>
@@ -10309,56 +10309,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="130"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="121"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="124" t="str">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="122"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="128" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="124" t="str">
+      <c r="I19" s="128" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="124" t="str">
+      <c r="J19" s="130"/>
+      <c r="K19" s="128" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v/>
       </c>
-      <c r="L19" s="125"/>
+      <c r="L19" s="130"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="124" t="str">
+      <c r="N19" s="128" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="125"/>
+      <c r="O19" s="130"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v/>
@@ -10380,56 +10380,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="130"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="121"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="122"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="124" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="126" t="str">
+      <c r="I21" s="124" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="126" t="str">
+      <c r="J21" s="125"/>
+      <c r="K21" s="124" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="127"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="126" t="str">
+      <c r="N21" s="124" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="125"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -10451,56 +10451,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="121"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="125"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="129"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="122"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="128" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="124" t="str">
+      <c r="I23" s="128" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126" t="str">
+      <c r="J23" s="130"/>
+      <c r="K23" s="124" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="130"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="126" t="str">
+      <c r="N23" s="124" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -10522,56 +10522,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="130"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="121"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="125"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="162"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="126"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="124" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="126" t="str">
+      <c r="I25" s="124" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="126" t="str">
+      <c r="J25" s="125"/>
+      <c r="K25" s="124" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="127"/>
+      <c r="L25" s="125"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="126" t="str">
+      <c r="N25" s="124" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="125"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -10593,155 +10593,281 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="139"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="127"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="139"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="127"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="55"/>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="156" t="s">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
-      <c r="O27" s="150">
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="117"/>
+      <c r="O27" s="109">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="152">
+      <c r="Q27" s="111">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="154">
+      <c r="R27" s="113">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="152">
+      <c r="S27" s="111">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="159"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-      <c r="O28" s="151"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="153"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="141" t="s">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="118"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="120"/>
+      <c r="O28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="112"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="144"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="144"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="144"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.65" thickBot="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="105"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="105"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="106"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="108"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A29:L33"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="Q27:Q28"/>
@@ -10766,132 +10892,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -10908,7 +10908,7 @@
       <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.9296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
@@ -10920,145 +10920,145 @@
     <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="120">
+      <c r="B1" s="133">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="E1" s="107" t="s">
+      <c r="C1" s="134"/>
+      <c r="E1" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="102">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="147">
         <v>38</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="154"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="102">
+      <c r="O1" s="158"/>
+      <c r="P1" s="147">
         <v>3500</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="100" t="s">
+      <c r="Q1" s="147"/>
+      <c r="R1" s="145" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="112"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="132"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="101"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="146"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="107" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="102">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="147">
         <v>6.5</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="154"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="102">
+      <c r="O3" s="158"/>
+      <c r="P3" s="147">
         <v>215</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="102">
+      <c r="R3" s="147">
         <v>17</v>
       </c>
-      <c r="S3" s="100" t="s">
+      <c r="S3" s="145" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="112"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="106"/>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="132"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="155"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="151"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1"/>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1">
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -11087,8 +11087,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="128" t="s">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="137" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -11147,50 +11147,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="127">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="122"/>
+      <c r="B9" s="125">
         <v>90</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="125">
         <v>3500</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="125">
         <v>215</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="125">
         <v>17</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="125">
         <v>-10</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="125">
         <v>95</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="124">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="124">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="125">
         <v>13</v>
       </c>
-      <c r="K9" s="126">
+      <c r="K9" s="124">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="125">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="126">
+      <c r="N9" s="124">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O9" s="125">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -11214,74 +11214,74 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="130" t="s">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="125">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="122"/>
+      <c r="B11" s="130">
         <v>90</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="130">
         <v>3500</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="130">
         <v>215</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="130">
         <v>17</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="130">
         <v>-10</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="130">
         <v>95</v>
       </c>
-      <c r="H11" s="124">
+      <c r="H11" s="128">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="124">
+      <c r="I11" s="128">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="130">
         <v>13</v>
       </c>
-      <c r="K11" s="124">
+      <c r="K11" s="128">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="130">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="124">
+      <c r="N11" s="128">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="130">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -11305,74 +11305,74 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="130" t="s">
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="130"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="127">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="122"/>
+      <c r="B13" s="125">
         <v>131</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="125">
         <v>3500</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="125">
         <v>215</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="125">
         <v>17</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="125">
         <v>-10</v>
       </c>
-      <c r="G13" s="127">
+      <c r="G13" s="125">
         <v>95</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="124">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="126">
+      <c r="I13" s="124">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="127">
+      <c r="J13" s="125">
         <v>13</v>
       </c>
-      <c r="K13" s="126">
+      <c r="K13" s="124">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="127">
+      <c r="L13" s="125">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="126">
+      <c r="N13" s="124">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="127">
+      <c r="O13" s="125">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -11396,74 +11396,74 @@
         <v>36.300000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="130" t="s">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="129"/>
-      <c r="B15" s="138">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="122"/>
+      <c r="B15" s="123">
         <v>131</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="123">
         <v>3500</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="123">
         <v>215</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="123">
         <v>17</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="123">
         <v>-10</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="123">
         <v>95</v>
       </c>
-      <c r="H15" s="124">
+      <c r="H15" s="128">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="128">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="130">
         <v>13</v>
       </c>
-      <c r="K15" s="124">
+      <c r="K15" s="128">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="125">
+      <c r="L15" s="130">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="124">
+      <c r="N15" s="128">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="125">
+      <c r="O15" s="130">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -11487,74 +11487,74 @@
         <v>35.800000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="130" t="s">
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="130"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="122"/>
+      <c r="B17" s="125">
         <v>131</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="125">
         <v>3500</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="125">
         <v>215</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="125">
         <v>17</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="125">
         <v>-10</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="125">
         <v>95</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="124">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="126">
+      <c r="I17" s="124">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="127">
+      <c r="J17" s="125">
         <v>13</v>
       </c>
-      <c r="K17" s="126">
+      <c r="K17" s="124">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="127">
+      <c r="L17" s="125">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="126">
+      <c r="N17" s="124">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="127">
+      <c r="O17" s="125">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -11578,74 +11578,74 @@
         <v>35.000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="130" t="s">
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="138">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="122"/>
+      <c r="B19" s="123">
         <v>131</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="123">
         <v>3500</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="123">
         <v>215</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="123">
         <v>17</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="123">
         <v>-10</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="123">
         <v>95</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="128">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="124">
+      <c r="I19" s="128">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="125">
+      <c r="J19" s="130">
         <v>13</v>
       </c>
-      <c r="K19" s="124">
+      <c r="K19" s="128">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="125">
+      <c r="L19" s="130">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="124">
+      <c r="N19" s="128">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="125">
+      <c r="O19" s="130">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -11669,58 +11669,58 @@
         <v>34.20000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="130" t="s">
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="122"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="124" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="126" t="str">
+      <c r="I21" s="124" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="126" t="str">
+      <c r="J21" s="125"/>
+      <c r="K21" s="124" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="127"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="126" t="str">
+      <c r="N21" s="124" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="125"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -11742,56 +11742,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="121"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="125"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="129"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="122"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="128" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="124" t="str">
+      <c r="I23" s="128" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126" t="str">
+      <c r="J23" s="130"/>
+      <c r="K23" s="124" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="130"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="126" t="str">
+      <c r="N23" s="124" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -11813,56 +11813,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="130"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="121"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="125"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="162"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="126"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="124" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="126" t="str">
+      <c r="I25" s="124" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="126" t="str">
+      <c r="J25" s="125"/>
+      <c r="K25" s="124" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="127"/>
+      <c r="L25" s="125"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="126" t="str">
+      <c r="N25" s="124" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="125"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -11884,187 +11884,249 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="139"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="127"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="139"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="127"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="55"/>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="156" t="s">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
-      <c r="O27" s="150">
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="117"/>
+      <c r="O27" s="109">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="152">
+      <c r="Q27" s="111">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="154">
+      <c r="R27" s="113">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="152">
+      <c r="S27" s="111">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="159"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-      <c r="O28" s="151"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="153"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="141" t="s">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="118"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="120"/>
+      <c r="O28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="112"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="144"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="144"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="144"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.65" thickBot="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="105"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="105"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="106"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="108"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="N17:N18"/>
@@ -12089,100 +12151,38 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="O27:O28"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12194,11 +12194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157655B-8A58-497F-BBC8-F24326906F8C}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.06640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.265625" style="1" customWidth="1"/>
@@ -12213,123 +12213,123 @@
     <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="173" t="s">
+      <c r="M1" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="181" t="s">
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="163" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="182"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="172" t="s">
+      <c r="M2" s="178"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="164"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="183" t="s">
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="181" t="s">
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="163" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="182"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1">
+      <c r="M4" s="181"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="164"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="133" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1">
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -12357,7 +12357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="128"/>
+      <c r="M8" s="137"/>
       <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
@@ -12415,34 +12415,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="126" t="str">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="125"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v/>
       </c>
-      <c r="H9" s="126" t="str">
+      <c r="H9" s="124" t="str">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="126" t="str">
+      <c r="I9" s="125"/>
+      <c r="J9" s="124" t="str">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v/>
       </c>
-      <c r="K9" s="127"/>
+      <c r="K9" s="125"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="126" t="str">
+      <c r="M9" s="122"/>
+      <c r="N9" s="124" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="127"/>
+      <c r="O9" s="125"/>
       <c r="P9" s="42" t="str">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
         <v/>
@@ -12464,56 +12464,56 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="124" t="str">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="128" t="str">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v/>
       </c>
-      <c r="H11" s="124" t="str">
+      <c r="H11" s="128" t="str">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="125"/>
-      <c r="J11" s="124" t="str">
+      <c r="I11" s="130"/>
+      <c r="J11" s="128" t="str">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v/>
       </c>
-      <c r="K11" s="125"/>
+      <c r="K11" s="130"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="124" t="str">
+      <c r="M11" s="122"/>
+      <c r="N11" s="128" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="125"/>
+      <c r="O11" s="130"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
         <v/>
@@ -12535,56 +12535,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="126" t="str">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="124" t="str">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v/>
       </c>
-      <c r="H13" s="126" t="str">
+      <c r="H13" s="124" t="str">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="126" t="str">
+      <c r="I13" s="125"/>
+      <c r="J13" s="124" t="str">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v/>
       </c>
-      <c r="K13" s="127"/>
+      <c r="K13" s="125"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="126" t="str">
+      <c r="M13" s="122"/>
+      <c r="N13" s="124" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="127"/>
+      <c r="O13" s="125"/>
       <c r="P13" s="42" t="str">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
         <v/>
@@ -12606,56 +12606,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="124" t="str">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="128" t="str">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v/>
       </c>
-      <c r="H15" s="124" t="str">
+      <c r="H15" s="128" t="str">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="124" t="str">
+      <c r="I15" s="130"/>
+      <c r="J15" s="128" t="str">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v/>
       </c>
-      <c r="K15" s="125"/>
+      <c r="K15" s="130"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="124" t="str">
+      <c r="M15" s="122"/>
+      <c r="N15" s="128" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="125"/>
+      <c r="O15" s="130"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
         <v/>
@@ -12677,56 +12677,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="126" t="str">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="124" t="str">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v/>
       </c>
-      <c r="H17" s="126" t="str">
+      <c r="H17" s="124" t="str">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="127"/>
-      <c r="J17" s="126" t="str">
+      <c r="I17" s="125"/>
+      <c r="J17" s="124" t="str">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v/>
       </c>
-      <c r="K17" s="127"/>
+      <c r="K17" s="125"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="126" t="str">
+      <c r="M17" s="122"/>
+      <c r="N17" s="124" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="127"/>
+      <c r="O17" s="125"/>
       <c r="P17" s="42" t="str">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
         <v/>
@@ -12748,56 +12748,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="127"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="124" t="str">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="128" t="str">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v/>
       </c>
-      <c r="H19" s="124" t="str">
+      <c r="H19" s="128" t="str">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="125"/>
-      <c r="J19" s="124" t="str">
+      <c r="I19" s="130"/>
+      <c r="J19" s="128" t="str">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v/>
       </c>
-      <c r="K19" s="125"/>
+      <c r="K19" s="130"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="124" t="str">
+      <c r="M19" s="122"/>
+      <c r="N19" s="128" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="125"/>
+      <c r="O19" s="130"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
         <v/>
@@ -12819,56 +12819,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="124" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="126" t="str">
+      <c r="H21" s="124" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="126" t="str">
+      <c r="I21" s="125"/>
+      <c r="J21" s="124" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="127"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="126" t="str">
+      <c r="M21" s="122"/>
+      <c r="N21" s="124" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="125"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -12890,56 +12890,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="125"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="128" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="124" t="str">
+      <c r="H23" s="128" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124" t="str">
+      <c r="I23" s="130"/>
+      <c r="J23" s="128" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="125"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="124" t="str">
+      <c r="M23" s="122"/>
+      <c r="N23" s="128" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -12961,56 +12961,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="125"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="124" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="126" t="str">
+      <c r="H25" s="124" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="126" t="str">
+      <c r="I25" s="125"/>
+      <c r="J25" s="124" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="127"/>
+      <c r="K25" s="125"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="126" t="str">
+      <c r="M25" s="126"/>
+      <c r="N25" s="124" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="125"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -13032,44 +13032,44 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="126"/>
-      <c r="O26" s="127"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="125"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="24.75" thickBot="1">
-      <c r="A27" s="144" t="s">
+    <row r="27" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -13091,24 +13091,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="149"/>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O11:O12"/>
@@ -13133,126 +13253,6 @@
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="N6:T6"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13268,7 +13268,7 @@
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.06640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.265625" style="1" customWidth="1"/>
@@ -13283,135 +13283,135 @@
     <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="167">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="172">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="168"/>
+      <c r="E1" s="173"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="171">
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="167">
         <v>38</v>
       </c>
-      <c r="K1" s="171"/>
+      <c r="K1" s="167"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="173" t="s">
+      <c r="M1" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="175">
+      <c r="N1" s="179">
         <v>3500</v>
       </c>
-      <c r="O1" s="175"/>
-      <c r="P1" s="181" t="s">
+      <c r="O1" s="179"/>
+      <c r="P1" s="163" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="182"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="172" t="s">
+      <c r="M2" s="178"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="164"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="171">
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="167">
         <v>6.5</v>
       </c>
-      <c r="K3" s="171"/>
+      <c r="K3" s="167"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="171">
+      <c r="N3" s="167">
         <v>215</v>
       </c>
-      <c r="O3" s="171"/>
-      <c r="P3" s="183" t="s">
+      <c r="O3" s="167"/>
+      <c r="P3" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="171">
+      <c r="Q3" s="167">
         <v>17</v>
       </c>
-      <c r="R3" s="171"/>
-      <c r="S3" s="181" t="s">
+      <c r="R3" s="167"/>
+      <c r="S3" s="163" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="182"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1">
+      <c r="M4" s="181"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="164"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="133" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1">
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -13439,7 +13439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="128" t="s">
+      <c r="M8" s="137" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -13499,50 +13499,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="127">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="125">
         <v>90</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="125">
         <v>3500</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="125">
         <v>170</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="125">
         <v>17</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="125">
         <v>-10</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="125">
         <v>95</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="124">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="124">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="127">
+      <c r="I9" s="125">
         <v>13</v>
       </c>
-      <c r="J9" s="126">
+      <c r="J9" s="124">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="127">
+      <c r="K9" s="125">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="126">
+      <c r="M9" s="122"/>
+      <c r="N9" s="124">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O9" s="125">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -13566,74 +13566,74 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="130" t="s">
+      <c r="M10" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="125">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="130">
         <v>90</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="130">
         <v>3500</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="130">
         <v>215</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="130">
         <v>17</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="130">
         <v>-10</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="130">
         <v>95</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G11" s="128">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="124">
+      <c r="H11" s="128">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="130">
         <v>13</v>
       </c>
-      <c r="J11" s="124">
+      <c r="J11" s="128">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="125">
+      <c r="K11" s="130">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="124">
+      <c r="M11" s="122"/>
+      <c r="N11" s="128">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="130">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -13657,74 +13657,74 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="130" t="s">
+      <c r="M12" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="127">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="125">
         <v>131</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="125">
         <v>3500</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="125">
         <v>215</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="125">
         <v>17</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="125">
         <v>-10</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="125">
         <v>95</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="124">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="124">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="127">
+      <c r="I13" s="125">
         <v>13</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="124">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="127">
+      <c r="K13" s="125">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="126">
+      <c r="M13" s="122"/>
+      <c r="N13" s="124">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="127">
+      <c r="O13" s="125">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -13748,74 +13748,74 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="130" t="s">
+      <c r="M14" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="125"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="138">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="123">
         <v>131</v>
       </c>
-      <c r="B15" s="138">
+      <c r="B15" s="123">
         <v>3500</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="123">
         <v>215</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="123">
         <v>17</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="123">
         <v>-10</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="123">
         <v>95</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="128">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="124">
+      <c r="H15" s="128">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="130">
         <v>13</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="128">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="125">
+      <c r="K15" s="130">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="124">
+      <c r="M15" s="122"/>
+      <c r="N15" s="128">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="125">
+      <c r="O15" s="130">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -13839,74 +13839,74 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="130" t="s">
+      <c r="M16" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="127">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="125">
         <v>131</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="125">
         <v>3500</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="125">
         <v>215</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="125">
         <v>17</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="125">
         <v>-10</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="125">
         <v>95</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="124">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="124">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="125">
         <v>13</v>
       </c>
-      <c r="J17" s="126">
+      <c r="J17" s="124">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="127">
+      <c r="K17" s="125">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="126">
+      <c r="M17" s="122"/>
+      <c r="N17" s="124">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="127">
+      <c r="O17" s="125">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -13930,74 +13930,74 @@
         <v>34.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="127"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="130" t="s">
+      <c r="M18" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="138">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="123">
         <v>131</v>
       </c>
-      <c r="B19" s="138">
+      <c r="B19" s="123">
         <v>3500</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="123">
         <v>215</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="123">
         <v>17</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="123">
         <v>-10</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="123">
         <v>95</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="128">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="128">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="130">
         <v>13</v>
       </c>
-      <c r="J19" s="124">
+      <c r="J19" s="128">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="125">
+      <c r="K19" s="130">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="124">
+      <c r="M19" s="122"/>
+      <c r="N19" s="128">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="125">
+      <c r="O19" s="130">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -14021,58 +14021,58 @@
         <v>34.100000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="130" t="s">
+      <c r="M20" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="125"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="124" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="126" t="str">
+      <c r="H21" s="124" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="126" t="str">
+      <c r="I21" s="125"/>
+      <c r="J21" s="124" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="127"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="126" t="str">
+      <c r="M21" s="122"/>
+      <c r="N21" s="124" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="125"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -14094,56 +14094,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="125"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="128" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="124" t="str">
+      <c r="H23" s="128" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124" t="str">
+      <c r="I23" s="130"/>
+      <c r="J23" s="128" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="125"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="124" t="str">
+      <c r="M23" s="122"/>
+      <c r="N23" s="128" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -14165,56 +14165,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="125"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="124" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="126" t="str">
+      <c r="H25" s="124" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="126" t="str">
+      <c r="I25" s="125"/>
+      <c r="J25" s="124" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="127"/>
+      <c r="K25" s="125"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="126" t="str">
+      <c r="M25" s="126"/>
+      <c r="N25" s="124" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="125"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -14236,44 +14236,44 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="126"/>
-      <c r="O26" s="127"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="125"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="24.75" thickBot="1">
-      <c r="A27" s="144" t="s">
+    <row r="27" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -14295,60 +14295,108 @@
         <v>3.8999999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="149"/>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F17:F18"/>
@@ -14373,90 +14421,42 @@
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14468,11 +14468,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="4.1328125" customWidth="1"/>
     <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
@@ -14484,8 +14484,8 @@
     <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.65" thickBot="1"/>
-    <row r="2" spans="2:22" ht="18.75" thickBot="1">
+    <row r="1" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="194" t="s">
         <v>95</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -14525,7 +14525,7 @@
       <c r="U3" s="201"/>
       <c r="V3" s="202"/>
     </row>
-    <row r="4" spans="2:22" ht="16.899999999999999">
+    <row r="4" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B4" s="66"/>
       <c r="C4" s="77" t="s">
         <v>82</v>
@@ -14558,7 +14558,7 @@
       <c r="U4" s="204"/>
       <c r="V4" s="205"/>
     </row>
-    <row r="5" spans="2:22" ht="16.899999999999999">
+    <row r="5" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B5" s="66"/>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -14591,7 +14591,7 @@
       <c r="U5" s="204"/>
       <c r="V5" s="205"/>
     </row>
-    <row r="6" spans="2:22" ht="16.899999999999999">
+    <row r="6" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B6" s="66"/>
       <c r="C6" s="79" t="s">
         <v>87</v>
@@ -14617,7 +14617,7 @@
       <c r="U6" s="204"/>
       <c r="V6" s="205"/>
     </row>
-    <row r="7" spans="2:22" ht="16.899999999999999">
+    <row r="7" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B7" s="66"/>
       <c r="C7" s="81" t="s">
         <v>86</v>
@@ -14650,7 +14650,7 @@
       <c r="U7" s="204"/>
       <c r="V7" s="205"/>
     </row>
-    <row r="8" spans="2:22" ht="16.899999999999999">
+    <row r="8" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B8" s="66"/>
       <c r="C8" s="79" t="s">
         <v>104</v>
@@ -14683,7 +14683,7 @@
       <c r="U8" s="204"/>
       <c r="V8" s="205"/>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="67"/>
@@ -14705,7 +14705,7 @@
       <c r="U9" s="204"/>
       <c r="V9" s="205"/>
     </row>
-    <row r="10" spans="2:22" ht="16.899999999999999">
+    <row r="10" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B10" s="66"/>
       <c r="C10" s="199" t="s">
         <v>23</v>
@@ -14729,7 +14729,7 @@
       <c r="U10" s="204"/>
       <c r="V10" s="205"/>
     </row>
-    <row r="11" spans="2:22" ht="17.25" thickBot="1">
+    <row r="11" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B11" s="66"/>
       <c r="C11" s="197">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(MOD(Wd-HEading,360)))*(Ws/TrueAirSpeed)))),0),"")</f>
@@ -14754,7 +14754,7 @@
       <c r="U11" s="207"/>
       <c r="V11" s="208"/>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -14772,7 +14772,7 @@
       <c r="I12" s="98"/>
       <c r="J12" s="99"/>
     </row>
-    <row r="13" spans="2:22" ht="16.899999999999999">
+    <row r="13" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
       <c r="B13" s="66"/>
       <c r="C13" s="96" t="s">
         <v>105</v>
@@ -14795,7 +14795,7 @@
       <c r="I13" s="98"/>
       <c r="J13" s="99"/>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -14806,7 +14806,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -14817,7 +14817,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="68"/>
     </row>
-    <row r="16" spans="2:22" ht="14.65" thickBot="1">
+    <row r="16" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
@@ -14828,7 +14828,7 @@
       <c r="I16" s="67"/>
       <c r="J16" s="68"/>
     </row>
-    <row r="17" spans="2:22" ht="18.399999999999999">
+    <row r="17" spans="2:22" ht="18.399999999999999" x14ac:dyDescent="0.7">
       <c r="B17" s="194" t="s">
         <v>96</v>
       </c>
@@ -14841,7 +14841,7 @@
       <c r="I17" s="195"/>
       <c r="J17" s="196"/>
     </row>
-    <row r="18" spans="2:22" ht="14.65" thickBot="1">
+    <row r="18" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
@@ -14852,7 +14852,7 @@
       <c r="I18" s="67"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:22" ht="17.25" thickBot="1">
+    <row r="19" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B19" s="66"/>
       <c r="C19" s="74" t="s">
         <v>85</v>
@@ -14877,7 +14877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1">
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
@@ -14908,7 +14908,7 @@
       <c r="U20" s="186"/>
       <c r="V20" s="187"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
@@ -14932,7 +14932,7 @@
       <c r="U21" s="189"/>
       <c r="V21" s="190"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -14954,7 +14954,7 @@
       <c r="U22" s="189"/>
       <c r="V22" s="190"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" s="66"/>
       <c r="C23" s="69" t="s">
         <v>89</v>
@@ -14984,7 +14984,7 @@
       <c r="U23" s="189"/>
       <c r="V23" s="190"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B24" s="66"/>
       <c r="C24" s="69" t="s">
         <v>90</v>
@@ -15014,7 +15014,7 @@
       <c r="U24" s="189"/>
       <c r="V24" s="190"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -15036,7 +15036,7 @@
       <c r="U25" s="189"/>
       <c r="V25" s="190"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -15058,7 +15058,7 @@
       <c r="U26" s="189"/>
       <c r="V26" s="190"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" s="66"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -15080,7 +15080,7 @@
       <c r="U27" s="189"/>
       <c r="V27" s="190"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B28" s="66"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -15102,7 +15102,7 @@
       <c r="U28" s="189"/>
       <c r="V28" s="190"/>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B29" s="66"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -15124,7 +15124,7 @@
       <c r="U29" s="189"/>
       <c r="V29" s="190"/>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -15146,7 +15146,7 @@
       <c r="U30" s="189"/>
       <c r="V30" s="190"/>
     </row>
-    <row r="31" spans="2:22" ht="14.65" thickBot="1">
+    <row r="31" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -15168,7 +15168,7 @@
       <c r="U31" s="192"/>
       <c r="V31" s="193"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
@@ -15179,7 +15179,7 @@
       <c r="I32" s="67"/>
       <c r="J32" s="68"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="66"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -15190,7 +15190,7 @@
       <c r="I33" s="67"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
@@ -15201,7 +15201,7 @@
       <c r="I34" s="67"/>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
@@ -15212,7 +15212,7 @@
       <c r="I35" s="67"/>
       <c r="J35" s="68"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="66"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -15223,7 +15223,7 @@
       <c r="I36" s="67"/>
       <c r="J36" s="68"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="66"/>
       <c r="C37" s="67"/>
       <c r="D37" s="67"/>
@@ -15234,7 +15234,7 @@
       <c r="I37" s="67"/>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
@@ -15245,7 +15245,7 @@
       <c r="I38" s="67"/>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="66"/>
       <c r="C39" s="67"/>
       <c r="D39" s="67"/>
@@ -15256,7 +15256,7 @@
       <c r="I39" s="67"/>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -15267,7 +15267,7 @@
       <c r="I40" s="67"/>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
       <c r="D41" s="67"/>
@@ -15278,7 +15278,7 @@
       <c r="I41" s="67"/>
       <c r="J41" s="68"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="66"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
@@ -15289,7 +15289,7 @@
       <c r="I42" s="67"/>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
       <c r="D43" s="67"/>
@@ -15300,7 +15300,7 @@
       <c r="I43" s="67"/>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
@@ -15311,7 +15311,7 @@
       <c r="I44" s="67"/>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45" s="66"/>
       <c r="C45" s="67"/>
       <c r="D45" s="67"/>
@@ -15322,7 +15322,7 @@
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="66"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
@@ -15333,7 +15333,7 @@
       <c r="I46" s="67"/>
       <c r="J46" s="68"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B47" s="66"/>
       <c r="C47" s="67"/>
       <c r="D47" s="67"/>
@@ -15344,7 +15344,7 @@
       <c r="I47" s="67"/>
       <c r="J47" s="68"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="66"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
@@ -15355,7 +15355,7 @@
       <c r="I48" s="67"/>
       <c r="J48" s="68"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="66"/>
       <c r="C49" s="67"/>
       <c r="D49" s="67"/>
@@ -15366,7 +15366,7 @@
       <c r="I49" s="67"/>
       <c r="J49" s="68"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B50" s="66"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
@@ -15377,7 +15377,7 @@
       <c r="I50" s="67"/>
       <c r="J50" s="68"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" s="66"/>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
@@ -15388,7 +15388,7 @@
       <c r="I51" s="67"/>
       <c r="J51" s="68"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="66"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
@@ -15399,7 +15399,7 @@
       <c r="I52" s="67"/>
       <c r="J52" s="68"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="66"/>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
@@ -15410,7 +15410,7 @@
       <c r="I53" s="67"/>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
@@ -15421,7 +15421,7 @@
       <c r="I54" s="67"/>
       <c r="J54" s="68"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" s="66"/>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
@@ -15432,7 +15432,7 @@
       <c r="I55" s="67"/>
       <c r="J55" s="68"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B56" s="66"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
@@ -15443,7 +15443,7 @@
       <c r="I56" s="67"/>
       <c r="J56" s="68"/>
     </row>
-    <row r="57" spans="2:10" ht="14.65" thickBot="1">
+    <row r="57" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
@@ -15478,7 +15478,7 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15493,22 +15493,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.5">
+    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>106</v>
       </c>

--- a/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E91B6813-1CED-4CBB-B9CB-9C04286C9B1E}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3F5C03-8D91-AA4C-9600-802309FAE2EC}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="818" firstSheet="2" activeTab="5" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="818" firstSheet="2" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2073,6 +2074,11 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,7 +2430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2443,13 +2451,6 @@
     <xf numFmtId="0" fontId="38" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2529,10 +2530,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>-0.93969262078590832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,10 +2545,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.22514845490862E-16</c:v>
+                  <c:v>0.34202014332566888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.22514845490862E-16</c:v>
+                  <c:v>-0.34202014332566888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,7 +2726,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.54463903501502708</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,7 +2741,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83867056794542394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3108,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34202014332566871</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3123,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.93969262078590843</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3307,10 +3308,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.22514845490862E-16</c:v>
+                  <c:v>1.2246467991473532E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.22514845490862E-16</c:v>
+                  <c:v>-1.2246467991473532E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,7 +3494,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34202014332566871</c:v>
+                  <c:v>-0.98480775301220802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,7 +3509,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.93969262078590843</c:v>
+                  <c:v>-0.17364817766693028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,7 +3880,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34202014332566871</c:v>
+                  <c:v>-0.98480775301220802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,7 +3895,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.93969262078590843</c:v>
+                  <c:v>-0.17364817766693028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9458,8 +9459,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8443" y="1698819"/>
-          <a:ext cx="78458" cy="3895232"/>
+          <a:off x="8443" y="1733426"/>
+          <a:ext cx="78458" cy="3914282"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
         </a:xfrm>
@@ -9873,8 +9874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1336973" y="1702133"/>
-          <a:ext cx="78458" cy="3895232"/>
+          <a:off x="1336973" y="1736740"/>
+          <a:ext cx="72108" cy="3914282"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
         </a:xfrm>
@@ -10293,8 +10294,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4854858" y="1653137"/>
-          <a:ext cx="1497372" cy="3919594"/>
+          <a:off x="4833691" y="1674832"/>
+          <a:ext cx="1491551" cy="3951344"/>
           <a:chOff x="4826283" y="1667424"/>
           <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
@@ -11133,8 +11134,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4854858" y="1653137"/>
-          <a:ext cx="1497372" cy="3919594"/>
+          <a:off x="4833691" y="1674832"/>
+          <a:ext cx="1491551" cy="3951344"/>
           <a:chOff x="4826283" y="1667424"/>
           <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
@@ -11973,8 +11974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="697029" y="4458379"/>
-          <a:ext cx="5854814" cy="6029739"/>
+          <a:off x="661650" y="4635499"/>
+          <a:ext cx="5773398" cy="6420717"/>
           <a:chOff x="8601419" y="4255632"/>
           <a:chExt cx="5835763" cy="6110022"/>
         </a:xfrm>
@@ -12103,8 +12104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3714604" y="468086"/>
-          <a:ext cx="2524762" cy="2524762"/>
+          <a:off x="3657454" y="504372"/>
+          <a:ext cx="2465117" cy="2593931"/>
           <a:chOff x="4414857" y="295255"/>
           <a:chExt cx="4324745" cy="4339070"/>
         </a:xfrm>
@@ -12245,8 +12246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1363317" y="4439481"/>
-          <a:ext cx="4321657" cy="4322899"/>
+          <a:off x="1327150" y="4635503"/>
+          <a:ext cx="4236070" cy="4517816"/>
           <a:chOff x="0" y="3938592"/>
           <a:chExt cx="4320000" cy="4320019"/>
         </a:xfrm>
@@ -12362,8 +12363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3306028" y="544995"/>
-          <a:ext cx="2523519" cy="2501570"/>
+          <a:off x="3241700" y="577849"/>
+          <a:ext cx="2466093" cy="2607312"/>
           <a:chOff x="4414856" y="295255"/>
           <a:chExt cx="4324746" cy="4339070"/>
         </a:xfrm>
@@ -12911,69 +12912,69 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
-    <col min="2" max="2" width="147.86328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.41796875" customWidth="1"/>
+    <col min="2" max="2" width="147.83984375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.97265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="21.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B1" s="51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="33" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
     </row>
-    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
     </row>
-    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="2:11" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:11" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
@@ -12987,7 +12988,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>47</v>
       </c>
@@ -13001,133 +13002,133 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="2:2" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="14" t="s">
         <v>75</v>
       </c>
@@ -13147,145 +13148,145 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="6.06640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.9296875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="6.06640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6.05078125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.94140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="6.05078125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.203125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="E1" s="107" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="E1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="111"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="116"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="100" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="105" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="109"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="112"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="117"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="101"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="106"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="107" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="111"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="104" t="s">
+      <c r="O3" s="120"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="100" t="s">
+      <c r="R3" s="107"/>
+      <c r="S3" s="105" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="112"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="106"/>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="117"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="111"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="140"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -13314,8 +13315,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="128"/>
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="133"/>
       <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
@@ -13372,34 +13373,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="129"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="126" t="str">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="134"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="131" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="126" t="str">
+      <c r="I9" s="131" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="126" t="str">
+      <c r="J9" s="132"/>
+      <c r="K9" s="131" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v/>
       </c>
-      <c r="L9" s="127"/>
+      <c r="L9" s="132"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="126" t="str">
+      <c r="N9" s="131" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="127"/>
+      <c r="O9" s="132"/>
       <c r="P9" s="43" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v/>
@@ -13421,56 +13422,56 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="130"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="135"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="129"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="124" t="str">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="134"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="129" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="124" t="str">
+      <c r="I11" s="129" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="125"/>
-      <c r="K11" s="124" t="str">
+      <c r="J11" s="130"/>
+      <c r="K11" s="129" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v/>
       </c>
-      <c r="L11" s="125"/>
+      <c r="L11" s="130"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="124" t="str">
+      <c r="N11" s="129" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="125"/>
+      <c r="O11" s="130"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v/>
@@ -13492,56 +13493,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="130"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="135"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="130"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="129"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="126" t="str">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="134"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="131" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="126" t="str">
+      <c r="I13" s="131" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="126" t="str">
+      <c r="J13" s="132"/>
+      <c r="K13" s="131" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v/>
       </c>
-      <c r="L13" s="127"/>
+      <c r="L13" s="132"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="126" t="str">
+      <c r="N13" s="131" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="127"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="43" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v/>
@@ -13563,56 +13564,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="130"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="135"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="132"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="129"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="124" t="str">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="134"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="129" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="124" t="str">
+      <c r="I15" s="129" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="124" t="str">
+      <c r="J15" s="130"/>
+      <c r="K15" s="129" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v/>
       </c>
-      <c r="L15" s="125"/>
+      <c r="L15" s="130"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="124" t="str">
+      <c r="N15" s="129" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="125"/>
+      <c r="O15" s="130"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v/>
@@ -13634,56 +13635,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="130"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="135"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="126" t="str">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="131" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="126" t="str">
+      <c r="I17" s="131" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="127"/>
-      <c r="K17" s="126" t="str">
+      <c r="J17" s="132"/>
+      <c r="K17" s="131" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v/>
       </c>
-      <c r="L17" s="127"/>
+      <c r="L17" s="132"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="126" t="str">
+      <c r="N17" s="131" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="127"/>
+      <c r="O17" s="132"/>
       <c r="P17" s="43" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v/>
@@ -13705,56 +13706,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="130"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="135"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="129"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="124" t="str">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="129" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="124" t="str">
+      <c r="I19" s="129" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="124" t="str">
+      <c r="J19" s="130"/>
+      <c r="K19" s="129" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v/>
       </c>
-      <c r="L19" s="125"/>
+      <c r="L19" s="130"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="124" t="str">
+      <c r="N19" s="129" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="125"/>
+      <c r="O19" s="130"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v/>
@@ -13776,56 +13777,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="130"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="135"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="131" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="126" t="str">
+      <c r="I21" s="131" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="126" t="str">
+      <c r="J21" s="132"/>
+      <c r="K21" s="131" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="127"/>
+      <c r="L21" s="132"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="126" t="str">
+      <c r="N21" s="131" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="132"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -13847,56 +13848,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="135"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="129"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="129" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="124" t="str">
+      <c r="I23" s="129" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126" t="str">
+      <c r="J23" s="130"/>
+      <c r="K23" s="131" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="130"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="126" t="str">
+      <c r="N23" s="131" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -13918,56 +13919,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="130"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="135"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="125"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="162"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="167"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="131" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="126" t="str">
+      <c r="I25" s="131" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="126" t="str">
+      <c r="J25" s="132"/>
+      <c r="K25" s="131" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="127"/>
+      <c r="L25" s="132"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="126" t="str">
+      <c r="N25" s="131" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="132"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -13989,151 +13990,151 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="139"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="144"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="139"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="144"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="55"/>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="156" t="s">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
-      <c r="O27" s="150">
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="163"/>
+      <c r="O27" s="155">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="152">
+      <c r="Q27" s="157">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="154">
+      <c r="R27" s="159">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="152">
+      <c r="S27" s="157">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="159"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-      <c r="O28" s="151"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="153"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A29" s="141" t="s">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="166"/>
+      <c r="O28" s="156"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="158"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A30" s="144"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A31" s="144"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" s="144"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="151"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="151"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="151"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="152"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -14300,161 +14301,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002BF1E-3608-46CE-99A5-FBE018EA192C}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="6.06640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.9296875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="6.06640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6.05078125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.94140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="6.05078125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.203125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="120">
+      <c r="B1" s="125">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="E1" s="107" t="s">
+      <c r="C1" s="126"/>
+      <c r="E1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="102">
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="107">
         <v>38</v>
       </c>
-      <c r="I1" s="111"/>
+      <c r="I1" s="116"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="102">
+      <c r="O1" s="120"/>
+      <c r="P1" s="107">
         <v>3500</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="100" t="s">
+      <c r="Q1" s="107"/>
+      <c r="R1" s="105" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="109"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="112"/>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="117"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="101"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="106"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="107" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="102">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="107">
         <v>6.5</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="102">
+      <c r="O3" s="120"/>
+      <c r="P3" s="107">
         <v>215</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="102">
+      <c r="R3" s="107">
         <v>17</v>
       </c>
-      <c r="S3" s="100" t="s">
+      <c r="S3" s="105" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="112"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="106"/>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="117"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="111"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="140"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -14483,8 +14484,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="128" t="s">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="133" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -14543,50 +14544,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="129"/>
-      <c r="B9" s="127">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="134"/>
+      <c r="B9" s="132">
         <v>90</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="132">
         <v>3500</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="132">
         <v>215</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="132">
         <v>17</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="132">
         <v>-10</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="132">
         <v>95</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="131">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="131">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="132">
         <v>13</v>
       </c>
-      <c r="K9" s="126">
+      <c r="K9" s="131">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="132">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="126">
+      <c r="N9" s="131">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O9" s="132">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -14610,74 +14611,74 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="130" t="s">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="129"/>
-      <c r="B11" s="125">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="134"/>
+      <c r="B11" s="130">
         <v>90</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="130">
         <v>3500</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="130">
         <v>215</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="130">
         <v>17</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="130">
         <v>-10</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="130">
         <v>95</v>
       </c>
-      <c r="H11" s="124">
+      <c r="H11" s="129">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="124">
+      <c r="I11" s="129">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="130">
         <v>13</v>
       </c>
-      <c r="K11" s="124">
+      <c r="K11" s="129">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="130">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="124">
+      <c r="N11" s="129">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="130">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -14701,74 +14702,74 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="130" t="s">
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="130"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="129"/>
-      <c r="B13" s="127">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="134"/>
+      <c r="B13" s="132">
         <v>131</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="132">
         <v>3500</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="132">
         <v>215</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="132">
         <v>17</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="132">
         <v>-10</v>
       </c>
-      <c r="G13" s="127">
+      <c r="G13" s="132">
         <v>95</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="131">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="126">
+      <c r="I13" s="131">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="127">
+      <c r="J13" s="132">
         <v>13</v>
       </c>
-      <c r="K13" s="126">
+      <c r="K13" s="131">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="127">
+      <c r="L13" s="132">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="126">
+      <c r="N13" s="131">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="127">
+      <c r="O13" s="132">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -14792,74 +14793,74 @@
         <v>36.300000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="130" t="s">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="132"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="129"/>
-      <c r="B15" s="138">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="134"/>
+      <c r="B15" s="143">
         <v>131</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="143">
         <v>3500</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="143">
         <v>215</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="143">
         <v>17</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="143">
         <v>-10</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="143">
         <v>95</v>
       </c>
-      <c r="H15" s="124">
+      <c r="H15" s="129">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="129">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="130">
         <v>13</v>
       </c>
-      <c r="K15" s="124">
+      <c r="K15" s="129">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="125">
+      <c r="L15" s="130">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="124">
+      <c r="N15" s="129">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="125">
+      <c r="O15" s="130">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -14883,74 +14884,74 @@
         <v>35.800000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="130" t="s">
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="134"/>
+      <c r="B17" s="132">
         <v>131</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="132">
         <v>3500</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="132">
         <v>215</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="132">
         <v>17</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="132">
         <v>-10</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="132">
         <v>95</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="131">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="126">
+      <c r="I17" s="131">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="127">
+      <c r="J17" s="132">
         <v>13</v>
       </c>
-      <c r="K17" s="126">
+      <c r="K17" s="131">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="127">
+      <c r="L17" s="132">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="126">
+      <c r="N17" s="131">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="127">
+      <c r="O17" s="132">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -14974,74 +14975,74 @@
         <v>35.000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="130" t="s">
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="129"/>
-      <c r="B19" s="138">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="134"/>
+      <c r="B19" s="143">
         <v>131</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="143">
         <v>3500</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="143">
         <v>215</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="143">
         <v>17</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="143">
         <v>-10</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="143">
         <v>95</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="129">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="124">
+      <c r="I19" s="129">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="125">
+      <c r="J19" s="130">
         <v>13</v>
       </c>
-      <c r="K19" s="124">
+      <c r="K19" s="129">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="125">
+      <c r="L19" s="130">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="124">
+      <c r="N19" s="129">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="125">
+      <c r="O19" s="130">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -15065,58 +15066,58 @@
         <v>34.20000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="130" t="s">
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="131" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="126" t="str">
+      <c r="I21" s="131" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="126" t="str">
+      <c r="J21" s="132"/>
+      <c r="K21" s="131" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="127"/>
+      <c r="L21" s="132"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="126" t="str">
+      <c r="N21" s="131" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="132"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -15138,56 +15139,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="130"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="135"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="129"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="129" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="124" t="str">
+      <c r="I23" s="129" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126" t="str">
+      <c r="J23" s="130"/>
+      <c r="K23" s="131" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="130"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="126" t="str">
+      <c r="N23" s="131" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -15209,56 +15210,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="130"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="135"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="125"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="162"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="167"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="131" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="126" t="str">
+      <c r="I25" s="131" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="126" t="str">
+      <c r="J25" s="132"/>
+      <c r="K25" s="131" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="127"/>
+      <c r="L25" s="132"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="126" t="str">
+      <c r="N25" s="131" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="132"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -15280,151 +15281,151 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="139"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="144"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="139"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="144"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="55"/>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="156" t="s">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
-      <c r="O27" s="150">
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="163"/>
+      <c r="O27" s="155">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="152">
+      <c r="Q27" s="157">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="154">
+      <c r="R27" s="159">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="152">
+      <c r="S27" s="157">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="159"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-      <c r="O28" s="151"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="153"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A29" s="141" t="s">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="166"/>
+      <c r="O28" s="156"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="158"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A30" s="144"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A31" s="144"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="146"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A32" s="144"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="151"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="151"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="151"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="152"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -15594,138 +15595,138 @@
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.06640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" style="1" customWidth="1"/>
-    <col min="5" max="11" width="6.06640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="0.9296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.73046875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="6.06640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.05078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.05078125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="6.05078125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.94140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.72265625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.05078125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="173" t="s">
+      <c r="M1" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="181" t="s">
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="186" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="182"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="172" t="s">
+      <c r="M2" s="179"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="187"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="183" t="s">
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="181" t="s">
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="182"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M4" s="182"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="187"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="133" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="185"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -15753,7 +15754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="128"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
@@ -15811,34 +15812,34 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="126" t="str">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="131" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v/>
       </c>
-      <c r="H9" s="126" t="str">
+      <c r="H9" s="131" t="str">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="126" t="str">
+      <c r="I9" s="132"/>
+      <c r="J9" s="131" t="str">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v/>
       </c>
-      <c r="K9" s="127"/>
+      <c r="K9" s="132"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="126" t="str">
+      <c r="M9" s="134"/>
+      <c r="N9" s="131" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="127"/>
+      <c r="O9" s="132"/>
       <c r="P9" s="42" t="str">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
         <v/>
@@ -15860,56 +15861,56 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="124" t="str">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="129" t="str">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v/>
       </c>
-      <c r="H11" s="124" t="str">
+      <c r="H11" s="129" t="str">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="125"/>
-      <c r="J11" s="124" t="str">
+      <c r="I11" s="130"/>
+      <c r="J11" s="129" t="str">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v/>
       </c>
-      <c r="K11" s="125"/>
+      <c r="K11" s="130"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="124" t="str">
+      <c r="M11" s="134"/>
+      <c r="N11" s="129" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="125"/>
+      <c r="O11" s="130"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
         <v/>
@@ -15931,56 +15932,56 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="126" t="str">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="132"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="131" t="str">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v/>
       </c>
-      <c r="H13" s="126" t="str">
+      <c r="H13" s="131" t="str">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="126" t="str">
+      <c r="I13" s="132"/>
+      <c r="J13" s="131" t="str">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v/>
       </c>
-      <c r="K13" s="127"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="126" t="str">
+      <c r="M13" s="134"/>
+      <c r="N13" s="131" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="127"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="42" t="str">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
         <v/>
@@ -16002,56 +16003,56 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="138"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="124" t="str">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="143"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="129" t="str">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v/>
       </c>
-      <c r="H15" s="124" t="str">
+      <c r="H15" s="129" t="str">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="124" t="str">
+      <c r="I15" s="130"/>
+      <c r="J15" s="129" t="str">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v/>
       </c>
-      <c r="K15" s="125"/>
+      <c r="K15" s="130"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="124" t="str">
+      <c r="M15" s="134"/>
+      <c r="N15" s="129" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="125"/>
+      <c r="O15" s="130"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
         <v/>
@@ -16073,56 +16074,56 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="126" t="str">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="131" t="str">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v/>
       </c>
-      <c r="H17" s="126" t="str">
+      <c r="H17" s="131" t="str">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="127"/>
-      <c r="J17" s="126" t="str">
+      <c r="I17" s="132"/>
+      <c r="J17" s="131" t="str">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v/>
       </c>
-      <c r="K17" s="127"/>
+      <c r="K17" s="132"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="126" t="str">
+      <c r="M17" s="134"/>
+      <c r="N17" s="131" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="127"/>
+      <c r="O17" s="132"/>
       <c r="P17" s="42" t="str">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
         <v/>
@@ -16144,56 +16145,56 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="127"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="132"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="138"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="124" t="str">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="143"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="129" t="str">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v/>
       </c>
-      <c r="H19" s="124" t="str">
+      <c r="H19" s="129" t="str">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="125"/>
-      <c r="J19" s="124" t="str">
+      <c r="I19" s="130"/>
+      <c r="J19" s="129" t="str">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v/>
       </c>
-      <c r="K19" s="125"/>
+      <c r="K19" s="130"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="124" t="str">
+      <c r="M19" s="134"/>
+      <c r="N19" s="129" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="125"/>
+      <c r="O19" s="130"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
         <v/>
@@ -16215,56 +16216,56 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="131" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="126" t="str">
+      <c r="H21" s="131" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="126" t="str">
+      <c r="I21" s="132"/>
+      <c r="J21" s="131" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="127"/>
+      <c r="K21" s="132"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="126" t="str">
+      <c r="M21" s="134"/>
+      <c r="N21" s="131" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="132"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -16286,56 +16287,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="129" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="124" t="str">
+      <c r="H23" s="129" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124" t="str">
+      <c r="I23" s="130"/>
+      <c r="J23" s="129" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="125"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="124" t="str">
+      <c r="M23" s="134"/>
+      <c r="N23" s="129" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -16357,56 +16358,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="125"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="131" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="126" t="str">
+      <c r="H25" s="131" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="126" t="str">
+      <c r="I25" s="132"/>
+      <c r="J25" s="131" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="127"/>
+      <c r="K25" s="132"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="126" t="str">
+      <c r="M25" s="167"/>
+      <c r="N25" s="131" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="132"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -16428,44 +16429,44 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="126"/>
-      <c r="O26" s="127"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="132"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+    <row r="27" spans="1:20" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -16487,18 +16488,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="149"/>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
@@ -16661,153 +16662,153 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.06640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" style="1" customWidth="1"/>
-    <col min="5" max="11" width="6.06640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="0.9296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.73046875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="6.06640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="6.06640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.05078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.05078125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="6.05078125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.94140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.72265625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.05078125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6.05078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="167">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="172">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="168"/>
+      <c r="E1" s="173"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="171">
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="176">
         <v>38</v>
       </c>
-      <c r="K1" s="171"/>
+      <c r="K1" s="176"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="173" t="s">
+      <c r="M1" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="175">
+      <c r="N1" s="180">
         <v>3500</v>
       </c>
-      <c r="O1" s="175"/>
-      <c r="P1" s="181" t="s">
+      <c r="O1" s="180"/>
+      <c r="P1" s="186" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="182"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G3" s="172" t="s">
+      <c r="M2" s="179"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="187"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="171">
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="176">
         <v>6.5</v>
       </c>
-      <c r="K3" s="171"/>
+      <c r="K3" s="176"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="176" t="s">
+      <c r="M3" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="171">
+      <c r="N3" s="176">
         <v>215</v>
       </c>
-      <c r="O3" s="171"/>
-      <c r="P3" s="183" t="s">
+      <c r="O3" s="176"/>
+      <c r="P3" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="171">
+      <c r="Q3" s="176">
         <v>17</v>
       </c>
-      <c r="R3" s="171"/>
-      <c r="S3" s="181" t="s">
+      <c r="R3" s="176"/>
+      <c r="S3" s="186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="182"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M4" s="182"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="187"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="133" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="185"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -16835,7 +16836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
@@ -16870,7 +16871,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="128" t="s">
+      <c r="M8" s="133" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -16895,50 +16896,50 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="127">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="132">
         <v>90</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="132">
         <v>3500</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="132">
         <v>170</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="132">
         <v>17</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="132">
         <v>-10</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="132">
         <v>95</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="131">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="131">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="127">
+      <c r="I9" s="132">
         <v>13</v>
       </c>
-      <c r="J9" s="126">
+      <c r="J9" s="131">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="127">
+      <c r="K9" s="132">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="126">
+      <c r="M9" s="134"/>
+      <c r="N9" s="131">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O9" s="132">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -16962,74 +16963,74 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="130" t="s">
+      <c r="M10" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="125">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="130">
         <v>90</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="130">
         <v>3500</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="130">
         <v>215</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="130">
         <v>17</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="130">
         <v>-10</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="130">
         <v>95</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G11" s="129">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="124">
+      <c r="H11" s="129">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="130">
         <v>13</v>
       </c>
-      <c r="J11" s="124">
+      <c r="J11" s="129">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="125">
+      <c r="K11" s="130">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="124">
+      <c r="M11" s="134"/>
+      <c r="N11" s="129">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="130">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -17053,74 +17054,74 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="125"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="130" t="s">
+      <c r="M12" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="124"/>
-      <c r="O12" s="125"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="127">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="132">
         <v>131</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="132">
         <v>3500</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="132">
         <v>215</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="132">
         <v>17</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="132">
         <v>-10</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="132">
         <v>95</v>
       </c>
-      <c r="G13" s="126">
+      <c r="G13" s="131">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="131">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="127">
+      <c r="I13" s="132">
         <v>13</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="131">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="127">
+      <c r="K13" s="132">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="126">
+      <c r="M13" s="134"/>
+      <c r="N13" s="131">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="127">
+      <c r="O13" s="132">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -17144,74 +17145,74 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="132"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="132"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="130" t="s">
+      <c r="M14" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="138">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="143">
         <v>131</v>
       </c>
-      <c r="B15" s="138">
+      <c r="B15" s="143">
         <v>3500</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="143">
         <v>215</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="143">
         <v>17</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="143">
         <v>-10</v>
       </c>
-      <c r="F15" s="138">
+      <c r="F15" s="143">
         <v>95</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="129">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="124">
+      <c r="H15" s="129">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="130">
         <v>13</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="129">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="125">
+      <c r="K15" s="130">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="124">
+      <c r="M15" s="134"/>
+      <c r="N15" s="129">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="125">
+      <c r="O15" s="130">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -17235,74 +17236,74 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="130" t="s">
+      <c r="M16" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="127">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="132">
         <v>131</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="132">
         <v>3500</v>
       </c>
-      <c r="C17" s="127">
+      <c r="C17" s="132">
         <v>215</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="132">
         <v>17</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="132">
         <v>-10</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="132">
         <v>95</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="131">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="131">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="132">
         <v>13</v>
       </c>
-      <c r="J17" s="126">
+      <c r="J17" s="131">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="127">
+      <c r="K17" s="132">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="126">
+      <c r="M17" s="134"/>
+      <c r="N17" s="131">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="127">
+      <c r="O17" s="132">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -17326,74 +17327,74 @@
         <v>34.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="127"/>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="132"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="130" t="s">
+      <c r="M18" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="138">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="143">
         <v>131</v>
       </c>
-      <c r="B19" s="138">
+      <c r="B19" s="143">
         <v>3500</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="143">
         <v>215</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="143">
         <v>17</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="143">
         <v>-10</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="143">
         <v>95</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="129">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="124">
+      <c r="H19" s="129">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="130">
         <v>13</v>
       </c>
-      <c r="J19" s="124">
+      <c r="J19" s="129">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="125">
+      <c r="K19" s="130">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="124">
+      <c r="M19" s="134"/>
+      <c r="N19" s="129">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="125">
+      <c r="O19" s="130">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -17417,58 +17418,58 @@
         <v>34.100000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="130" t="s">
+      <c r="M20" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="126" t="str">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="131" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="126" t="str">
+      <c r="H21" s="131" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="126" t="str">
+      <c r="I21" s="132"/>
+      <c r="J21" s="131" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="127"/>
+      <c r="K21" s="132"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="126" t="str">
+      <c r="M21" s="134"/>
+      <c r="N21" s="131" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="127"/>
+      <c r="O21" s="132"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -17490,56 +17491,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="127"/>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="127"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="124" t="str">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="129" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="124" t="str">
+      <c r="H23" s="129" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124" t="str">
+      <c r="I23" s="130"/>
+      <c r="J23" s="129" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="125"/>
+      <c r="K23" s="130"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="124" t="str">
+      <c r="M23" s="134"/>
+      <c r="N23" s="129" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="125"/>
+      <c r="O23" s="130"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -17561,56 +17562,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="125"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="130"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="126" t="str">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="131" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="126" t="str">
+      <c r="H25" s="131" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="126" t="str">
+      <c r="I25" s="132"/>
+      <c r="J25" s="131" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="127"/>
+      <c r="K25" s="132"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="126" t="str">
+      <c r="M25" s="167"/>
+      <c r="N25" s="131" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="127"/>
+      <c r="O25" s="132"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -17632,44 +17633,44 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="126"/>
-      <c r="O26" s="127"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="132"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+    <row r="27" spans="1:20" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -17691,18 +17692,18 @@
         <v>3.8999999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="149"/>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
@@ -17864,40 +17865,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.1328125" customWidth="1"/>
-    <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.9296875" customWidth="1"/>
-    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="4.16796875" customWidth="1"/>
+    <col min="3" max="3" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.91796875" customWidth="1"/>
+    <col min="5" max="5" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14453125" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.03515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="194" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
       <c r="L2" s="93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -17907,23 +17908,23 @@
       <c r="H3" s="98"/>
       <c r="I3" s="98"/>
       <c r="J3" s="99"/>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="202"/>
-    </row>
-    <row r="4" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="207"/>
+    </row>
+    <row r="4" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B4" s="66"/>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="103" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="78">
@@ -17942,19 +17943,19 @@
       </c>
       <c r="I4" s="98"/>
       <c r="J4" s="99"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="205"/>
-    </row>
-    <row r="5" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L4" s="208"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="209"/>
+      <c r="V4" s="210"/>
+    </row>
+    <row r="5" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -17975,25 +17976,25 @@
       </c>
       <c r="I5" s="98"/>
       <c r="J5" s="99"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="205"/>
-    </row>
-    <row r="6" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.6">
+      <c r="L5" s="208"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="209"/>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
+      <c r="U5" s="209"/>
+      <c r="V5" s="210"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" s="66"/>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="104" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="80">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E6" s="98"/>
       <c r="F6" s="98"/>
@@ -18001,25 +18002,25 @@
       <c r="H6" s="98"/>
       <c r="I6" s="98"/>
       <c r="J6" s="99"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="205"/>
-    </row>
-    <row r="7" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L6" s="208"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="210"/>
+    </row>
+    <row r="7" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="66"/>
       <c r="C7" s="81" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="82">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E7" s="98"/>
       <c r="F7" s="98" t="s">
@@ -18030,29 +18031,29 @@
       </c>
       <c r="H7" s="98">
         <f>COS((Wd-90)*(PI()/180))</f>
-        <v>-0.34202014332566871</v>
+        <v>1</v>
       </c>
       <c r="I7" s="98"/>
       <c r="J7" s="99"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="205"/>
-    </row>
-    <row r="8" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L7" s="208"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="209"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="209"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="210"/>
+    </row>
+    <row r="8" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="66"/>
       <c r="C8" s="79" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="80">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E8" s="98"/>
       <c r="F8" s="98" t="s">
@@ -18063,23 +18064,23 @@
       </c>
       <c r="H8" s="98">
         <f>-SIN((Wd-90)*(PI()/180))</f>
-        <v>-0.93969262078590843</v>
+        <v>0</v>
       </c>
       <c r="I8" s="98"/>
       <c r="J8" s="99"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="205"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L8" s="208"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="210"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="67"/>
@@ -18089,68 +18090,68 @@
       <c r="H9" s="98"/>
       <c r="I9" s="98"/>
       <c r="J9" s="99"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="205"/>
-    </row>
-    <row r="10" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L9" s="208"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="209"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="209"/>
+      <c r="U9" s="209"/>
+      <c r="V9" s="210"/>
+    </row>
+    <row r="10" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="66"/>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="200"/>
+      <c r="D10" s="205"/>
       <c r="E10" s="98"/>
       <c r="F10" s="98"/>
       <c r="G10" s="98"/>
       <c r="H10" s="98"/>
       <c r="I10" s="98"/>
       <c r="J10" s="99"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="205"/>
-    </row>
-    <row r="11" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="L10" s="208"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
+      <c r="P10" s="209"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="209"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="209"/>
+      <c r="U10" s="209"/>
+      <c r="V10" s="210"/>
+    </row>
+    <row r="11" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="66"/>
-      <c r="C11" s="197">
+      <c r="C11" s="202">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(MOD(Wd-HEading,360)))*(Ws/TrueAirSpeed)))),0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="D11" s="198"/>
+        <v>-4</v>
+      </c>
+      <c r="D11" s="203"/>
       <c r="E11" s="98"/>
       <c r="F11" s="98"/>
       <c r="G11" s="98"/>
       <c r="H11" s="98"/>
       <c r="I11" s="98"/>
       <c r="J11" s="99"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="207"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="207"/>
-      <c r="S11" s="207"/>
-      <c r="T11" s="207"/>
-      <c r="U11" s="207"/>
-      <c r="V11" s="208"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L11" s="211"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="212"/>
+      <c r="S11" s="212"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="213"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -18163,19 +18164,19 @@
       </c>
       <c r="H12" s="98">
         <f>COS((Wdm-90)*(PI()/180))</f>
-        <v>-0.54463903501502708</v>
+        <v>1</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="99"/>
     </row>
-    <row r="13" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="66"/>
       <c r="C13" s="96" t="s">
         <v>105</v>
       </c>
       <c r="D13" s="97">
         <f>MOD(Wd+DEV,360)</f>
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="E13" s="98"/>
       <c r="F13" s="98" t="s">
@@ -18186,12 +18187,12 @@
       </c>
       <c r="H13" s="98">
         <f>-SIN((Wdm-90)*(PI()/180))</f>
-        <v>-0.83867056794542394</v>
+        <v>0</v>
       </c>
       <c r="I13" s="98"/>
       <c r="J13" s="99"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -18202,7 +18203,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -18213,7 +18214,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="68"/>
     </row>
-    <row r="16" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
@@ -18224,20 +18225,20 @@
       <c r="I16" s="67"/>
       <c r="J16" s="68"/>
     </row>
-    <row r="17" spans="2:22" ht="18.399999999999999" x14ac:dyDescent="0.7">
-      <c r="B17" s="194" t="s">
+    <row r="17" spans="2:22" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
-    </row>
-    <row r="18" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
@@ -18248,13 +18249,13 @@
       <c r="I18" s="67"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="66"/>
       <c r="C19" s="74" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="76">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="86" t="s">
@@ -18262,7 +18263,7 @@
       </c>
       <c r="G19" s="87">
         <f>Ws*ABS(SIN(MOD(Wdm-(RWY*10),360)*(PI()/180)))</f>
-        <v>12.580058519181364</v>
+        <v>2.7361611466053493</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>91</v>
@@ -18273,7 +18274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
@@ -18283,28 +18284,28 @@
       </c>
       <c r="G20" s="84">
         <f>Ws*(COS(MOD(Wdm-(RWY*10),360)*(PI()/180)))</f>
-        <v>8.1695855252253988</v>
+        <v>-7.5175409662872674</v>
       </c>
       <c r="H20" s="85" t="s">
         <v>91</v>
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
-      <c r="L20" s="185" t="s">
+      <c r="L20" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="187"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="192"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
@@ -18316,19 +18317,19 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="68"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="189"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="189"/>
-      <c r="S21" s="189"/>
-      <c r="T21" s="189"/>
-      <c r="U21" s="189"/>
-      <c r="V21" s="190"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L21" s="193"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="195"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -18338,79 +18339,79 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="189"/>
-      <c r="N22" s="189"/>
-      <c r="O22" s="189"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="189"/>
-      <c r="S22" s="189"/>
-      <c r="T22" s="189"/>
-      <c r="U22" s="189"/>
-      <c r="V22" s="190"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L22" s="193"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="195"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="66"/>
       <c r="C23" s="69" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="69">
         <f>-E23</f>
-        <v>1</v>
+        <v>0.93969262078590832</v>
       </c>
       <c r="E23" s="69">
         <f>COS((RWY*10-90)*(PI()/180))</f>
-        <v>-1</v>
+        <v>-0.93969262078590832</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="68"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
-      <c r="O23" s="189"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="189"/>
-      <c r="S23" s="189"/>
-      <c r="T23" s="189"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="190"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L23" s="193"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="195"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="66"/>
       <c r="C24" s="69" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="69">
         <f>-E24</f>
-        <v>1.22514845490862E-16</v>
+        <v>0.34202014332566888</v>
       </c>
       <c r="E24" s="69">
         <f>-SIN((RWY*10-90)*(PI()/180))</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-0.34202014332566888</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="189"/>
-      <c r="N24" s="189"/>
-      <c r="O24" s="189"/>
-      <c r="P24" s="189"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="189"/>
-      <c r="S24" s="189"/>
-      <c r="T24" s="189"/>
-      <c r="U24" s="189"/>
-      <c r="V24" s="190"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L24" s="193"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="195"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -18420,19 +18421,19 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="189"/>
-      <c r="N25" s="189"/>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
-      <c r="S25" s="189"/>
-      <c r="T25" s="189"/>
-      <c r="U25" s="189"/>
-      <c r="V25" s="190"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L25" s="193"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="195"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -18442,19 +18443,19 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="189"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="189"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="189"/>
-      <c r="S26" s="189"/>
-      <c r="T26" s="189"/>
-      <c r="U26" s="189"/>
-      <c r="V26" s="190"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L26" s="193"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="195"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="66"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -18464,19 +18465,19 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="189"/>
-      <c r="N27" s="189"/>
-      <c r="O27" s="189"/>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="189"/>
-      <c r="R27" s="189"/>
-      <c r="S27" s="189"/>
-      <c r="T27" s="189"/>
-      <c r="U27" s="189"/>
-      <c r="V27" s="190"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L27" s="193"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="195"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="66"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -18486,19 +18487,19 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="189"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
-      <c r="S28" s="189"/>
-      <c r="T28" s="189"/>
-      <c r="U28" s="189"/>
-      <c r="V28" s="190"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="195"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="66"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -18508,19 +18509,19 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="189"/>
-      <c r="N29" s="189"/>
-      <c r="O29" s="189"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="189"/>
-      <c r="S29" s="189"/>
-      <c r="T29" s="189"/>
-      <c r="U29" s="189"/>
-      <c r="V29" s="190"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L29" s="193"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="195"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -18530,19 +18531,19 @@
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="189"/>
-      <c r="N30" s="189"/>
-      <c r="O30" s="189"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="189"/>
-      <c r="R30" s="189"/>
-      <c r="S30" s="189"/>
-      <c r="T30" s="189"/>
-      <c r="U30" s="189"/>
-      <c r="V30" s="190"/>
-    </row>
-    <row r="31" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L30" s="193"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="195"/>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -18552,19 +18553,19 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="68"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="192"/>
-      <c r="P31" s="192"/>
-      <c r="Q31" s="192"/>
-      <c r="R31" s="192"/>
-      <c r="S31" s="192"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="193"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L31" s="196"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="198"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
@@ -18575,7 +18576,7 @@
       <c r="I32" s="67"/>
       <c r="J32" s="68"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="66"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -18586,7 +18587,7 @@
       <c r="I33" s="67"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
@@ -18597,7 +18598,7 @@
       <c r="I34" s="67"/>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
@@ -18608,7 +18609,7 @@
       <c r="I35" s="67"/>
       <c r="J35" s="68"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="66"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -18619,7 +18620,7 @@
       <c r="I36" s="67"/>
       <c r="J36" s="68"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="66"/>
       <c r="C37" s="67"/>
       <c r="D37" s="67"/>
@@ -18630,7 +18631,7 @@
       <c r="I37" s="67"/>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
@@ -18641,7 +18642,7 @@
       <c r="I38" s="67"/>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="66"/>
       <c r="C39" s="67"/>
       <c r="D39" s="67"/>
@@ -18652,7 +18653,7 @@
       <c r="I39" s="67"/>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -18663,7 +18664,7 @@
       <c r="I40" s="67"/>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
       <c r="D41" s="67"/>
@@ -18674,7 +18675,7 @@
       <c r="I41" s="67"/>
       <c r="J41" s="68"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="66"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
@@ -18685,7 +18686,7 @@
       <c r="I42" s="67"/>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
       <c r="D43" s="67"/>
@@ -18696,7 +18697,7 @@
       <c r="I43" s="67"/>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
@@ -18707,7 +18708,7 @@
       <c r="I44" s="67"/>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="66"/>
       <c r="C45" s="67"/>
       <c r="D45" s="67"/>
@@ -18718,7 +18719,7 @@
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="66"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
@@ -18729,7 +18730,7 @@
       <c r="I46" s="67"/>
       <c r="J46" s="68"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="66"/>
       <c r="C47" s="67"/>
       <c r="D47" s="67"/>
@@ -18740,7 +18741,7 @@
       <c r="I47" s="67"/>
       <c r="J47" s="68"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="66"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
@@ -18751,7 +18752,7 @@
       <c r="I48" s="67"/>
       <c r="J48" s="68"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="66"/>
       <c r="C49" s="67"/>
       <c r="D49" s="67"/>
@@ -18762,7 +18763,7 @@
       <c r="I49" s="67"/>
       <c r="J49" s="68"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="66"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
@@ -18773,7 +18774,7 @@
       <c r="I50" s="67"/>
       <c r="J50" s="68"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="66"/>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
@@ -18784,7 +18785,7 @@
       <c r="I51" s="67"/>
       <c r="J51" s="68"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="66"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
@@ -18795,7 +18796,7 @@
       <c r="I52" s="67"/>
       <c r="J52" s="68"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="66"/>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
@@ -18806,7 +18807,7 @@
       <c r="I53" s="67"/>
       <c r="J53" s="68"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
@@ -18817,7 +18818,7 @@
       <c r="I54" s="67"/>
       <c r="J54" s="68"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="66"/>
       <c r="C55" s="67"/>
       <c r="D55" s="67"/>
@@ -18828,7 +18829,7 @@
       <c r="I55" s="67"/>
       <c r="J55" s="68"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="66"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
@@ -18839,7 +18840,7 @@
       <c r="I56" s="67"/>
       <c r="J56" s="68"/>
     </row>
-    <row r="57" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
@@ -18870,57 +18871,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E724F9-E222-45A0-BDFC-6F3B6E498688}">
   <dimension ref="B1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.1328125" customWidth="1"/>
-    <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.9296875" customWidth="1"/>
-    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="4.16796875" customWidth="1"/>
+    <col min="3" max="3" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.91796875" customWidth="1"/>
+    <col min="5" max="5" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14453125" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.03515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="194" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
       <c r="L2" s="93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="66"/>
       <c r="J3" s="68"/>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="202"/>
-    </row>
-    <row r="4" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="207"/>
+    </row>
+    <row r="4" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="66"/>
       <c r="C4" s="77" t="s">
         <v>82</v>
@@ -18928,31 +18929,31 @@
       <c r="D4" s="78">
         <v>180</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="209">
+      <c r="G4" s="100">
         <v>0</v>
       </c>
-      <c r="H4" s="209">
+      <c r="H4" s="100">
         <f>COS((HEading-90)*(PI()/180))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="I4" s="209"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="68"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="205"/>
-    </row>
-    <row r="5" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L4" s="208"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="210"/>
+    </row>
+    <row r="5" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="89" t="s">
         <v>94</v>
@@ -18960,205 +18961,205 @@
       <c r="D5" s="90">
         <v>95</v>
       </c>
-      <c r="F5" s="209" t="s">
+      <c r="F5" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="209">
+      <c r="G5" s="100">
         <v>0</v>
       </c>
-      <c r="H5" s="209">
+      <c r="H5" s="100">
         <f>-SIN((HEading-90)*(PI()/180))</f>
         <v>-1</v>
       </c>
-      <c r="I5" s="209"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="68"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="210"/>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="210"/>
-      <c r="V5" s="205"/>
-    </row>
-    <row r="6" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L5" s="208"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="215"/>
+      <c r="S5" s="215"/>
+      <c r="T5" s="215"/>
+      <c r="U5" s="215"/>
+      <c r="V5" s="210"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="66"/>
       <c r="C6" s="79" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="80">
-        <v>200</v>
-      </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+        <v>260</v>
+      </c>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="68"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="210"/>
-      <c r="R6" s="210"/>
-      <c r="S6" s="210"/>
-      <c r="T6" s="210"/>
-      <c r="U6" s="210"/>
-      <c r="V6" s="205"/>
-    </row>
-    <row r="7" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L6" s="208"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="210"/>
+    </row>
+    <row r="7" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="66"/>
       <c r="C7" s="81" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="82">
-        <v>16</v>
-      </c>
-      <c r="F7" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="209">
+      <c r="G7" s="100">
         <v>0</v>
       </c>
-      <c r="H7" s="209">
+      <c r="H7" s="100">
         <f>COS((Wd-90)*(PI()/180))</f>
-        <v>-0.34202014332566871</v>
-      </c>
-      <c r="I7" s="209"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="I7" s="100"/>
       <c r="J7" s="68"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="210"/>
-      <c r="R7" s="210"/>
-      <c r="S7" s="210"/>
-      <c r="T7" s="210"/>
-      <c r="U7" s="210"/>
-      <c r="V7" s="205"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L7" s="208"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
+      <c r="V7" s="210"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="66"/>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="209">
+      <c r="G8" s="100">
         <v>0</v>
       </c>
-      <c r="H8" s="209">
+      <c r="H8" s="100">
         <f>-SIN((Wd-90)*(PI()/180))</f>
-        <v>-0.93969262078590843</v>
-      </c>
-      <c r="I8" s="209"/>
+        <v>-0.17364817766693028</v>
+      </c>
+      <c r="I8" s="100"/>
       <c r="J8" s="68"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="210"/>
-      <c r="Q8" s="210"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="205"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L8" s="208"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="210"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
       <c r="J9" s="68"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="210"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="210"/>
-      <c r="U9" s="210"/>
-      <c r="V9" s="205"/>
-    </row>
-    <row r="10" spans="2:22" ht="16.899999999999999" x14ac:dyDescent="0.65">
+      <c r="L9" s="208"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="210"/>
+    </row>
+    <row r="10" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="66"/>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="211"/>
+      <c r="D10" s="216"/>
       <c r="J10" s="68"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="210"/>
-      <c r="V10" s="205"/>
-    </row>
-    <row r="11" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="L10" s="208"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="215"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
+      <c r="V10" s="210"/>
+    </row>
+    <row r="11" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="66"/>
-      <c r="C11" s="212">
+      <c r="C11" s="217">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(Wd-HEading))*(Ws/TrueAirSpeed)))),0),"")</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="212"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="217"/>
       <c r="J11" s="68"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="207"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="207"/>
-      <c r="S11" s="207"/>
-      <c r="T11" s="207"/>
-      <c r="U11" s="207"/>
-      <c r="V11" s="208"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L11" s="211"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="212"/>
+      <c r="S11" s="212"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="213"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="66"/>
       <c r="J12" s="68"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="66"/>
       <c r="J13" s="68"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="66"/>
       <c r="J15" s="68"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="66"/>
       <c r="J16" s="68"/>
     </row>
-    <row r="17" spans="2:22" ht="18.399999999999999" x14ac:dyDescent="0.7">
-      <c r="B17" s="213" t="s">
+    <row r="17" spans="2:22" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="215"/>
-    </row>
-    <row r="18" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="66"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="66"/>
       <c r="C19" s="74" t="s">
         <v>85</v>
@@ -19166,13 +19167,13 @@
       <c r="D19" s="76">
         <v>27</v>
       </c>
-      <c r="E19" s="216"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="86" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="87">
         <f>Ws*ABS(SIN(MOD(Wd-(RWY*10),360)*(PI()/180)))</f>
-        <v>15.035081932574533</v>
+        <v>1.3891854213354431</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>91</v>
@@ -19182,280 +19183,280 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="66"/>
       <c r="F20" s="83" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="84">
         <f>Ws*(COS(MOD(Wd-(RWY*10),360)*(PI()/180)))</f>
-        <v>5.4723222932107038</v>
+        <v>7.8784620240976642</v>
       </c>
       <c r="H20" s="85" t="s">
         <v>91</v>
       </c>
       <c r="J20" s="68"/>
-      <c r="L20" s="185" t="s">
+      <c r="L20" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="187"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="192"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="66"/>
-      <c r="F21" s="217" t="s">
+      <c r="F21" s="102" t="s">
         <v>93</v>
       </c>
       <c r="J21" s="68"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
-      <c r="T21" s="218"/>
-      <c r="U21" s="218"/>
-      <c r="V21" s="190"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L21" s="193"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="214"/>
+      <c r="Q21" s="214"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="214"/>
+      <c r="T21" s="214"/>
+      <c r="U21" s="214"/>
+      <c r="V21" s="195"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="66"/>
       <c r="J22" s="68"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="190"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L22" s="193"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="195"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="66"/>
-      <c r="C23" s="209" t="s">
+      <c r="C23" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="209">
+      <c r="D23" s="100">
         <f>-E23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="209">
+      <c r="E23" s="100">
         <f>COS((RWY*10-90)*(PI()/180))</f>
         <v>-1</v>
       </c>
       <c r="J23" s="68"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="218"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="218"/>
-      <c r="S23" s="218"/>
-      <c r="T23" s="218"/>
-      <c r="U23" s="218"/>
-      <c r="V23" s="190"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L23" s="193"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="214"/>
+      <c r="Q23" s="214"/>
+      <c r="R23" s="214"/>
+      <c r="S23" s="214"/>
+      <c r="T23" s="214"/>
+      <c r="U23" s="214"/>
+      <c r="V23" s="195"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="66"/>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="209">
+      <c r="D24" s="100">
         <f>-E24</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="E24" s="209">
+        <v>1.2246467991473532E-16</v>
+      </c>
+      <c r="E24" s="100">
         <f>-SIN((RWY*10-90)*(PI()/180))</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1.2246467991473532E-16</v>
       </c>
       <c r="J24" s="68"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
-      <c r="U24" s="218"/>
-      <c r="V24" s="190"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L24" s="193"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="214"/>
+      <c r="Q24" s="214"/>
+      <c r="R24" s="214"/>
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="195"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="66"/>
       <c r="J25" s="68"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="218"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="218"/>
-      <c r="S25" s="218"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="218"/>
-      <c r="V25" s="190"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L25" s="193"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="214"/>
+      <c r="U25" s="214"/>
+      <c r="V25" s="195"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="66"/>
       <c r="J26" s="68"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="218"/>
-      <c r="T26" s="218"/>
-      <c r="U26" s="218"/>
-      <c r="V26" s="190"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L26" s="193"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="214"/>
+      <c r="Q26" s="214"/>
+      <c r="R26" s="214"/>
+      <c r="S26" s="214"/>
+      <c r="T26" s="214"/>
+      <c r="U26" s="214"/>
+      <c r="V26" s="195"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="66"/>
       <c r="J27" s="68"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="218"/>
-      <c r="T27" s="218"/>
-      <c r="U27" s="218"/>
-      <c r="V27" s="190"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L27" s="193"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="214"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="195"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="66"/>
       <c r="J28" s="68"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="218"/>
-      <c r="R28" s="218"/>
-      <c r="S28" s="218"/>
-      <c r="T28" s="218"/>
-      <c r="U28" s="218"/>
-      <c r="V28" s="190"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L28" s="193"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="195"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="66"/>
       <c r="J29" s="68"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="218"/>
-      <c r="S29" s="218"/>
-      <c r="T29" s="218"/>
-      <c r="U29" s="218"/>
-      <c r="V29" s="190"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L29" s="193"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="214"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="195"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="66"/>
       <c r="J30" s="68"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="218"/>
-      <c r="N30" s="218"/>
-      <c r="O30" s="218"/>
-      <c r="P30" s="218"/>
-      <c r="Q30" s="218"/>
-      <c r="R30" s="218"/>
-      <c r="S30" s="218"/>
-      <c r="T30" s="218"/>
-      <c r="U30" s="218"/>
-      <c r="V30" s="190"/>
-    </row>
-    <row r="31" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L30" s="193"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="214"/>
+      <c r="Q30" s="214"/>
+      <c r="R30" s="214"/>
+      <c r="S30" s="214"/>
+      <c r="T30" s="214"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="195"/>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="66"/>
       <c r="J31" s="68"/>
-      <c r="L31" s="191"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="192"/>
-      <c r="P31" s="192"/>
-      <c r="Q31" s="192"/>
-      <c r="R31" s="192"/>
-      <c r="S31" s="192"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="193"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="L31" s="196"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="198"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="66"/>
       <c r="J32" s="68"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="66"/>
       <c r="J33" s="68"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="66"/>
       <c r="J34" s="68"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="66"/>
       <c r="J35" s="68"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="66"/>
       <c r="J36" s="68"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="66"/>
       <c r="J37" s="68"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="66"/>
       <c r="J38" s="68"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="66"/>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="66"/>
       <c r="J40" s="68"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="66"/>
       <c r="J41" s="68"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="66"/>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="66"/>
       <c r="J43" s="68"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="66"/>
       <c r="J44" s="68"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="66"/>
       <c r="J45" s="68"/>
     </row>
-    <row r="46" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
@@ -19468,12 +19469,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L20:V31"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L3:V11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B17:J17"/>
-    <mergeCell ref="L20:V31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19489,7 +19490,7 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19504,22 +19505,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="64.03125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
